--- a/xlsx/sheet.xlsx
+++ b/xlsx/sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="732">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>エントリー（entry）</t>
+  </si>
+  <si>
+    <t>カテゴリー（category）</t>
   </si>
   <si>
     <t>株式会社日立ソリューションズ西日本</t>
@@ -94,6 +97,9 @@
   </si>
   <si>
     <t>img53.jpg</t>
+  </si>
+  <si>
+    <t>digital_systems_services</t>
   </si>
   <si>
     <t>株式会社日立ICTビジネスサービス</t>
@@ -130,6 +136,9 @@
     <t>img04.jpg</t>
   </si>
   <si>
+    <t>corporate</t>
+  </si>
+  <si>
     <t>株式会社日立システムズエンジニアリングサービス</t>
   </si>
   <si>
@@ -156,6 +165,9 @@
   </si>
   <si>
     <t>img00.jpg</t>
+  </si>
+  <si>
+    <t>connective_industries</t>
   </si>
   <si>
     <t>株式会社日立システムズパワーサービス</t>
@@ -205,6 +217,9 @@
     <t>img17.jpg</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>株式会社日立システムズ</t>
   </si>
   <si>
@@ -239,6 +254,9 @@
   </si>
   <si>
     <t>https://youtu.be/G41c-Kb5xIY?si=nJ1brOweYpaATZM1</t>
+  </si>
+  <si>
+    <t>mobility</t>
   </si>
   <si>
     <t>株式会社 日立ソリューションズ・クリエイト</t>
@@ -3720,7 +3738,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -3759,6 +3777,9 @@
     </xf>
     <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -4119,7 +4140,8 @@
     <col customWidth="1" min="11" max="11" width="24.56"/>
     <col customWidth="1" min="12" max="12" width="12.78"/>
     <col customWidth="1" min="13" max="13" width="19.0"/>
-    <col customWidth="1" min="14" max="25" width="8.33"/>
+    <col customWidth="1" min="14" max="14" width="29.22"/>
+    <col customWidth="1" min="15" max="25" width="8.33"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -4162,1626 +4184,1740 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="5">
         <v>0.0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="J13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="H15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" ht="19.5" customHeight="1">
+      <c r="A30" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" ht="19.5" customHeight="1">
+      <c r="A33" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" ht="19.5" customHeight="1">
+      <c r="A34" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="J34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" ht="19.5" customHeight="1">
+      <c r="A35" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" ht="19.5" customHeight="1">
+      <c r="A36" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="17" t="s">
+      <c r="H36" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="13">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="13">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="13">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="13">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="13">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="13">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="13">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="13">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="13">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="13">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="13">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="13">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="13">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="13">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="13">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="13">
-        <v>29.0</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="13">
-        <v>30.0</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="13">
-        <v>31.0</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="K36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" ht="19.5" customHeight="1">
+      <c r="A37" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="13">
-        <v>32.0</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="13">
-        <v>33.0</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" s="18" t="s">
+      <c r="H37" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="13">
-        <v>34.0</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" s="13">
-        <v>35.0</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="I37" s="9" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="22"/>
       <c r="M37" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="13">
+      <c r="A38" s="14">
         <v>36.0</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>290</v>
+        <v>22</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="13">
+      <c r="A39" s="14">
         <v>37.0</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="28"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
       <c r="L39" s="12"/>
       <c r="M39" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
-      <c r="A40" s="13">
+      <c r="A40" s="14">
         <v>38.0</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="28"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29"/>
       <c r="L40" s="12"/>
       <c r="M40" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="19.5" customHeight="1">
-      <c r="A41" s="13">
+      <c r="A41" s="14">
         <v>39.0</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="29"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="12"/>
       <c r="M41" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="19.5" customHeight="1">
-      <c r="A42" s="13">
+      <c r="A42" s="14">
         <v>40.0</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="21"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="5">
         <v>41.0</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
       <c r="M43" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="5">
         <v>42.0</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="31"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="32"/>
       <c r="L44" s="12"/>
       <c r="M44" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="19.5" customHeight="1">
@@ -6743,6 +6879,11 @@
     <row r="999" ht="19.5" customHeight="1"/>
     <row r="1000" ht="19.5" customHeight="1"/>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N38">
+      <formula1>"digital_systems_services,corporate,connective_industries,energy,mobility"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
     <hyperlink r:id="rId2" ref="E2"/>
@@ -6885,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -6919,1719 +7060,1719 @@
       <c r="A2" s="5">
         <v>0.0</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="B2" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="33" t="s">
+      <c r="H3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" s="39"/>
+      <c r="M21" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="K2" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J3" s="33" t="s">
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="L23" s="39"/>
+      <c r="M23" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="L24" s="39"/>
+      <c r="M24" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="J26" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="K26" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="L27" s="39"/>
+      <c r="M27" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="L29" s="39"/>
+      <c r="M29" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" ht="19.5" customHeight="1">
+      <c r="A30" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="L31" s="39"/>
+      <c r="M31" s="44" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="L32" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" ht="19.5" customHeight="1">
+      <c r="A33" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="L33" s="39"/>
+      <c r="M33" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" ht="19.5" customHeight="1">
+      <c r="A34" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" ht="19.5" customHeight="1">
+      <c r="A35" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="L35" s="39"/>
+      <c r="M35" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" ht="19.5" customHeight="1">
+      <c r="A36" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="L36" s="39"/>
+      <c r="M36" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" ht="19.5" customHeight="1">
+      <c r="A37" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="L37" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" ht="19.5" customHeight="1">
+      <c r="A38" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K38" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="L38" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" ht="19.5" customHeight="1">
+      <c r="A39" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="L39" s="39"/>
+      <c r="M39" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" ht="19.5" customHeight="1">
+      <c r="A40" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="L40" s="39"/>
+      <c r="M40" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="K6" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="32" t="s">
+    </row>
+    <row r="41" ht="19.5" customHeight="1">
+      <c r="A41" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="L41" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="42" ht="19.5" customHeight="1">
+      <c r="A42" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="H42" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="13">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="13">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="13">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="13">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>389</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="13">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>395</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="13">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="43" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="13">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="M22" s="47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="13">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="47" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="13">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="13">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="L25" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="13">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="L26" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="13">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="13">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>441</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="K28" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="13">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="13">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>459</v>
-      </c>
-      <c r="L30" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="13">
-        <v>29.0</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="43" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="13">
-        <v>30.0</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="L32" s="39" t="s">
-        <v>475</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="13">
-        <v>31.0</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="K33" s="42" t="s">
-        <v>480</v>
-      </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="13">
-        <v>32.0</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>485</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="K34" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="13">
-        <v>33.0</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="K35" s="42" t="s">
-        <v>494</v>
-      </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="13">
-        <v>34.0</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>495</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>498</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="K36" s="42" t="s">
-        <v>504</v>
-      </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" s="13">
-        <v>35.0</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="J37" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="K37" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>513</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="13">
-        <v>36.0</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>517</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="36" t="s">
-        <v>520</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="K38" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>521</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="13">
-        <v>37.0</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="K39" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="L39" s="38"/>
-      <c r="M39" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" ht="19.5" customHeight="1">
-      <c r="A40" s="13">
-        <v>38.0</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="K40" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="L40" s="38"/>
-      <c r="M40" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" ht="19.5" customHeight="1">
-      <c r="A41" s="13">
-        <v>39.0</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="K41" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>544</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="42" ht="19.5" customHeight="1">
-      <c r="A42" s="13">
-        <v>40.0</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="C42" s="33" t="s">
+      <c r="I42" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>550</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="K42" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="43" t="s">
-        <v>554</v>
+      <c r="J42" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="L42" s="39"/>
+      <c r="M42" s="44" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="5">
         <v>41.0</v>
       </c>
-      <c r="B43" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>558</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>559</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="H43" s="33" t="s">
+      <c r="B43" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="I43" s="33" t="s">
+      <c r="C43" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="D43" s="34" t="s">
         <v>563</v>
       </c>
-      <c r="K43" s="37" t="s">
+      <c r="E43" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="F43" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="M43" s="47" t="s">
+      <c r="G43" s="34" t="s">
         <v>566</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="L43" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="M43" s="48" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="5">
         <v>42.0</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="J44" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="L44" s="46" t="s">
-        <v>571</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>261</v>
+      <c r="B44" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="L44" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="45" ht="19.5" customHeight="1">
@@ -9765,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -9793,1442 +9934,1442 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="14">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="30" ht="19.5" customHeight="1">
+      <c r="A30" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="33" ht="19.5" customHeight="1">
+      <c r="A33" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="34" ht="19.5" customHeight="1">
+      <c r="A34" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="35" ht="19.5" customHeight="1">
+      <c r="A35" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="36" ht="19.5" customHeight="1">
+      <c r="A36" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="37" ht="19.5" customHeight="1">
+      <c r="A37" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="38" ht="19.5" customHeight="1">
+      <c r="A38" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" ht="19.5" customHeight="1">
+      <c r="A39" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" ht="19.5" customHeight="1">
+      <c r="A40" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="41" ht="19.5" customHeight="1">
+      <c r="A41" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="D41" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="J41" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="13">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>608</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="13">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="13">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="13">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="13">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="13">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>637</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="13">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="13">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="13">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="13">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>651</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="13">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>655</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>656</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="13">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="13">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>662</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>664</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="13">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>668</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>669</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>670</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="13">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>672</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="13">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>676</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="13">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>677</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="13">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="13">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="13">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="13">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="13">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>705</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" s="13">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="13">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="13">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="40" ht="19.5" customHeight="1">
-      <c r="A40" s="13">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="41" ht="19.5" customHeight="1">
-      <c r="A41" s="13">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>725</v>
+      <c r="K41" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="42" ht="19.5" customHeight="1"/>

--- a/xlsx/sheet.xlsx
+++ b/xlsx/sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kono.arisa/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15BB72-954D-1B44-9663-C80AC19E4D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1259A164-40EA-F243-8E85-CC6A9B4DBA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="2500" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
 年間休日120日以上
 フレックスタイム制度
 服装自由</t>
-  </si>
-  <si>
-    <t>https://webseminar.jobtv.mynavi.jp/-site_media/media/lc/qarnqjelhlfraye_24658/1/index.html</t>
   </si>
   <si>
     <t>img17.jpg</t>
@@ -3606,6 +3603,10 @@
   </si>
   <si>
     <t>日立グローバルライフソリューションズ株式会社</t>
+    <phoneticPr fontId="34"/>
+  </si>
+  <si>
+    <t>https://secure-web.cisco.com/1-7dFYpkDnJPlCw9vegiIvd5uTllYICE9dThuBeXbNi0om3gAcOIuOOOq6LEAkc7wQajtaeWB3DPJxPb9fF5poGG4xEEX1daxnrTijwdfUv9M3DzeNxAN7jXYcA2KXBBAHF39iU2Bh6XS3cZzKZnn9HK6_7dG6vquj7UMCzto68l1WhtK6tYnaePECClEQ7MQ5Y3lLgMb9t-hYze-SaIIRPuxfMIZCRT7ChFLjOFBYKZVs0-iS2H3beq6wMGbbUzTR1lAkmMiFe8-vLbntUwAz_reMjrjperfjImdUKxM1rDsPNmtRaJuZhvGxEa4E6Rd0WILFnZ6yWpffB3S-10CwQ/https%3A%2F%2Fconvert.jobtv.mynavi.jp%2Frlink%3Fuc%3D27s106366vod01</t>
     <phoneticPr fontId="34"/>
   </si>
 </sst>
@@ -3969,7 +3970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4155,6 +4156,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="35" fillId="6" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4375,10 +4379,10 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="I51" sqref="I51:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4508,7 +4512,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>20</v>
@@ -4580,7 +4584,7 @@
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4596,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>20</v>
@@ -4607,17 +4611,17 @@
       <c r="J5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="62" t="s">
+        <v>745</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1">
@@ -4625,19 +4629,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>19</v>
@@ -4646,22 +4650,22 @@
         <v>20</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1">
@@ -4669,19 +4673,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>19</v>
@@ -4690,16 +4694,16 @@
         <v>20</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>22</v>
@@ -4713,19 +4717,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>46</v>
@@ -4734,16 +4738,16 @@
         <v>20</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>22</v>
@@ -4757,19 +4761,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>19</v>
@@ -4787,7 +4791,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>22</v>
@@ -4801,16 +4805,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -4822,16 +4826,16 @@
         <v>20</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>22</v>
@@ -4845,19 +4849,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>19</v>
@@ -4866,22 +4870,22 @@
         <v>20</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1">
@@ -4889,19 +4893,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>19</v>
@@ -4910,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>22</v>
@@ -4919,7 +4923,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>22</v>
@@ -4933,19 +4937,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>46</v>
@@ -4963,13 +4967,13 @@
         <v>22</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1">
@@ -4977,37 +4981,37 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>22</v>
@@ -5021,19 +5025,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -5042,7 +5046,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>22</v>
@@ -5051,7 +5055,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>22</v>
@@ -5065,28 +5069,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>22</v>
@@ -5095,7 +5099,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>22</v>
@@ -5109,19 +5113,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>46</v>
@@ -5130,16 +5134,16 @@
         <v>20</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>22</v>
@@ -5153,28 +5157,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>22</v>
@@ -5183,7 +5187,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>22</v>
@@ -5197,28 +5201,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="D19" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>736</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>22</v>
@@ -5227,13 +5231,13 @@
         <v>22</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1">
@@ -5241,43 +5245,43 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1">
@@ -5285,37 +5289,37 @@
         <v>19</v>
       </c>
       <c r="B21" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L21" s="49" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>22</v>
@@ -5329,37 +5333,37 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="H22" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>22</v>
@@ -5373,28 +5377,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="H23" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>22</v>
@@ -5403,7 +5407,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>22</v>
@@ -5417,37 +5421,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="H24" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>22</v>
@@ -5461,37 +5465,37 @@
         <v>23</v>
       </c>
       <c r="B25" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L25" s="59" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>22</v>
@@ -5505,43 +5509,43 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1">
@@ -5549,28 +5553,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>22</v>
@@ -5579,13 +5583,13 @@
         <v>22</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="19.5" customHeight="1">
@@ -5593,28 +5597,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="F28" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F28" s="51" t="s">
-        <v>741</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>216</v>
-      </c>
       <c r="H28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>22</v>
@@ -5623,7 +5627,7 @@
         <v>22</v>
       </c>
       <c r="L28" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>22</v>
@@ -5637,37 +5641,37 @@
         <v>27</v>
       </c>
       <c r="B29" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>220</v>
-      </c>
       <c r="E29" s="60" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>22</v>
@@ -5681,37 +5685,37 @@
         <v>28</v>
       </c>
       <c r="B30" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>743</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K30" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>22</v>
@@ -5725,28 +5729,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>22</v>
@@ -5755,7 +5759,7 @@
         <v>22</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>22</v>
@@ -5769,37 +5773,37 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>250</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>22</v>
@@ -5813,28 +5817,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="F33" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>22</v>
@@ -5843,13 +5847,13 @@
         <v>22</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="19.5" customHeight="1">
@@ -5857,25 +5861,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="E34" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>21</v>
@@ -5884,16 +5888,16 @@
         <v>22</v>
       </c>
       <c r="K34" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="19.5" customHeight="1">
@@ -5901,28 +5905,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="F35" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>22</v>
@@ -5931,7 +5935,7 @@
         <v>22</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>22</v>
@@ -5945,28 +5949,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="F36" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>22</v>
@@ -5975,7 +5979,7 @@
         <v>22</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>22</v>
@@ -5989,28 +5993,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="F37" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>22</v>
@@ -6019,7 +6023,7 @@
         <v>22</v>
       </c>
       <c r="L37" s="49" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>22</v>
@@ -6033,28 +6037,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="F38" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>22</v>
@@ -6063,7 +6067,7 @@
         <v>22</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>22</v>
@@ -7161,90 +7165,90 @@
     <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K14" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E19" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E23" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D24" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E24" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K24" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D25" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E25" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K25" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D26" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E26" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D27" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E27" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D28" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E28" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D29" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E29" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K29" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D30" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E30" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K30" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D31" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E31" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D32" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E32" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K32" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D33" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E33" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D34" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E34" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K34" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D35" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E35" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D36" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E36" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D37" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E37" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D38" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E38" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D12" r:id="rId87" xr:uid="{4FA94DCE-C28F-B543-8D35-3E8716393686}"/>
-    <hyperlink ref="E12" r:id="rId88" xr:uid="{38E7E8F5-0165-2A43-8711-0AC2DD8BBDBC}"/>
-    <hyperlink ref="D11" r:id="rId89" xr:uid="{7567E5A9-33FD-794C-95E9-86BA23852575}"/>
-    <hyperlink ref="E11" r:id="rId90" xr:uid="{C1A48E56-5821-EE41-AA91-9E3F6F2FE5AE}"/>
-    <hyperlink ref="K11" r:id="rId91" xr:uid="{49CFF2A0-CF79-AF4B-AA4B-23470FDA9D90}"/>
-    <hyperlink ref="K7" r:id="rId92" xr:uid="{2B7D0943-8701-684E-A0F3-F12393FED575}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D21" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D22" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D23" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D24" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E24" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K24" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D25" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E25" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K25" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D26" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E26" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K26" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D27" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E27" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D28" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E28" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D29" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E29" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K29" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D30" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E30" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K30" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D31" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E31" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D32" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E32" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K32" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D33" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E33" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D34" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E34" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K34" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D35" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E35" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D36" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E36" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D37" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E37" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D38" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E38" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D12" r:id="rId86" xr:uid="{4FA94DCE-C28F-B543-8D35-3E8716393686}"/>
+    <hyperlink ref="E12" r:id="rId87" xr:uid="{38E7E8F5-0165-2A43-8711-0AC2DD8BBDBC}"/>
+    <hyperlink ref="D11" r:id="rId88" xr:uid="{7567E5A9-33FD-794C-95E9-86BA23852575}"/>
+    <hyperlink ref="E11" r:id="rId89" xr:uid="{C1A48E56-5821-EE41-AA91-9E3F6F2FE5AE}"/>
+    <hyperlink ref="K11" r:id="rId90" xr:uid="{49CFF2A0-CF79-AF4B-AA4B-23470FDA9D90}"/>
+    <hyperlink ref="K7" r:id="rId91" xr:uid="{2B7D0943-8701-684E-A0F3-F12393FED575}"/>
+    <hyperlink ref="K5" r:id="rId92" display="https://secure-web.cisco.com/1-7dFYpkDnJPlCw9vegiIvd5uTllYICE9dThuBeXbNi0om3gAcOIuOOOq6LEAkc7wQajtaeWB3DPJxPb9fF5poGG4xEEX1daxnrTijwdfUv9M3DzeNxAN7jXYcA2KXBBAHF39iU2Bh6XS3cZzKZnn9HK6_7dG6vquj7UMCzto68l1WhtK6tYnaePECClEQ7MQ5Y3lLgMb9t-hYze-SaIIRPuxfMIZCRT7ChFLjOFBYKZVs0-iS2H3beq6wMGbbUzTR1lAkmMiFe8-vLbntUwAz_reMjrjperfjImdUKxM1rDsPNmtRaJuZhvGxEa4E6Rd0WILFnZ6yWpffB3S-10CwQ/https%3A%2F%2Fconvert.jobtv.mynavi.jp%2Frlink%3Fuc%3D27s106366vod01" xr:uid="{79E5543A-02AC-DB48-AB94-C202CE76E246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7291,7 +7295,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -7326,34 +7330,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>299</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>300</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="32" t="s">
         <v>302</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>303</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="12" t="s">
@@ -7365,19 +7369,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>305</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>306</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>18</v>
@@ -7386,19 +7390,19 @@
         <v>19</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>310</v>
-      </c>
       <c r="M3" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" customHeight="1">
@@ -7406,38 +7410,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="G4" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="36" t="s">
         <v>319</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>320</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1">
@@ -7445,38 +7449,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1">
@@ -7487,10 +7491,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>27</v>
@@ -7499,19 +7503,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="12" t="s">
@@ -7523,40 +7527,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="E7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="L7" s="34" t="s">
-        <v>334</v>
-      </c>
       <c r="M7" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
@@ -7564,38 +7568,38 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>78</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1">
@@ -7606,10 +7610,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>35</v>
@@ -7618,19 +7622,19 @@
         <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="12" t="s">
@@ -7642,40 +7646,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="L10" s="34" t="s">
+      <c r="M10" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" customHeight="1">
@@ -7683,40 +7687,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="32" t="s">
+      <c r="L11" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="L11" s="34" t="s">
-        <v>351</v>
-      </c>
       <c r="M11" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1">
@@ -7730,7 +7734,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>43</v>
@@ -7739,25 +7743,25 @@
         <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="K12" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="L12" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="L12" s="34" t="s">
-        <v>356</v>
-      </c>
       <c r="M12" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1">
@@ -7765,40 +7769,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J13" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="K13" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="L13" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="M13" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1">
@@ -7806,38 +7810,38 @@
         <v>12</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="F14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="K14" s="37" t="s">
         <v>367</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>368</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1">
@@ -7845,19 +7849,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>373</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>374</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>18</v>
@@ -7866,19 +7870,19 @@
         <v>19</v>
       </c>
       <c r="I15" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="K15" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="L15" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="M15" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1">
@@ -7892,7 +7896,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>16</v>
@@ -7907,17 +7911,17 @@
         <v>19</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L16" s="33"/>
       <c r="M16" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1">
@@ -7925,38 +7929,38 @@
         <v>15</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" s="40" t="s">
         <v>383</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>384</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1">
@@ -7964,40 +7968,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="G18" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J18" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="K18" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>389</v>
-      </c>
       <c r="M18" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
@@ -8005,40 +8009,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="28" t="s">
+      <c r="H19" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="L19" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="L19" s="34" t="s">
-        <v>396</v>
-      </c>
       <c r="M19" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1">
@@ -8046,40 +8050,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="K20" s="37" t="s">
+      <c r="L20" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="L20" s="41" t="s">
-        <v>402</v>
-      </c>
       <c r="M20" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1">
@@ -8087,38 +8091,38 @@
         <v>19</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="K21" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1">
@@ -8126,40 +8130,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="32" t="s">
+      <c r="L22" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="M22" s="42" t="s">
         <v>414</v>
-      </c>
-      <c r="M22" s="42" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="19.5" customHeight="1">
@@ -8167,38 +8171,38 @@
         <v>21</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="E23" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>215</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="37" t="s">
         <v>418</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>419</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1">
@@ -8206,38 +8210,38 @@
         <v>22</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="E24" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="G24" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1">
@@ -8245,40 +8249,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="D25" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="F25" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="L25" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="L25" s="39" t="s">
-        <v>430</v>
-      </c>
       <c r="M25" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1">
@@ -8286,40 +8290,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="30" t="s">
+      <c r="G26" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K26" s="37" t="s">
+      <c r="L26" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="L26" s="43" t="s">
-        <v>438</v>
-      </c>
       <c r="M26" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1">
@@ -8327,38 +8331,38 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="G27" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" customHeight="1">
@@ -8366,40 +8370,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="44" t="s">
+      <c r="G28" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="K28" s="32" t="s">
+      <c r="L28" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="L28" s="34" t="s">
-        <v>454</v>
-      </c>
       <c r="M28" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1">
@@ -8407,38 +8411,38 @@
         <v>27</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="F29" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="K29" s="37" t="s">
         <v>459</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>460</v>
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1">
@@ -8446,40 +8450,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="K30" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>466</v>
-      </c>
       <c r="L30" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1">
@@ -8487,36 +8491,36 @@
         <v>29</v>
       </c>
       <c r="B31" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="29" t="s">
         <v>469</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>470</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="32" t="s">
         <v>473</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>474</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1">
@@ -8524,40 +8528,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="E32" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="F32" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="L32" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="L32" s="34" t="s">
-        <v>482</v>
-      </c>
       <c r="M32" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1">
@@ -8565,38 +8569,38 @@
         <v>31</v>
       </c>
       <c r="B33" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="F33" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I33" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="K33" s="37" t="s">
         <v>486</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>487</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1">
@@ -8604,40 +8608,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="F34" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="E34" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="30" t="s">
+      <c r="G34" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="L34" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="L34" s="34" t="s">
-        <v>496</v>
-      </c>
       <c r="M34" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1">
@@ -8645,38 +8649,38 @@
         <v>33</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E35" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="37" t="s">
         <v>500</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>501</v>
       </c>
       <c r="L35" s="33"/>
       <c r="M35" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1">
@@ -8684,38 +8688,38 @@
         <v>34</v>
       </c>
       <c r="B36" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="F36" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="G36" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="J36" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="37" t="s">
         <v>511</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>512</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1">
@@ -8723,40 +8727,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>514</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="E37" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="F37" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="J37" s="31" t="s">
         <v>518</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="K37" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="L37" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="L37" s="34" t="s">
-        <v>521</v>
-      </c>
       <c r="M37" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1">
@@ -8764,40 +8768,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="D38" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="E38" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="F38" s="30" t="s">
         <v>525</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="G38" s="31" t="s">
         <v>526</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>527</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I38" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="L38" s="34" t="s">
+      <c r="M38" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1">
@@ -8805,38 +8809,38 @@
         <v>37</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="F39" s="30" t="s">
+      <c r="G39" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>536</v>
-      </c>
       <c r="K39" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L39" s="33"/>
       <c r="M39" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1">
@@ -8844,38 +8848,38 @@
         <v>38</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D40" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="E40" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="K40" s="32" t="s">
         <v>541</v>
-      </c>
-      <c r="K40" s="32" t="s">
-        <v>542</v>
       </c>
       <c r="L40" s="33"/>
       <c r="M40" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1">
@@ -8883,40 +8887,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="F41" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="G41" s="31" t="s">
         <v>547</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="H41" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="I41" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="K41" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="K41" s="32" t="s">
+      <c r="L41" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="M41" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1">
@@ -8924,38 +8928,38 @@
         <v>40</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="F42" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="G42" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J42" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="K42" s="32" t="s">
         <v>560</v>
-      </c>
-      <c r="K42" s="32" t="s">
-        <v>561</v>
       </c>
       <c r="L42" s="33"/>
       <c r="M42" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19.5" customHeight="1">
@@ -8963,40 +8967,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="F43" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="G43" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="L43" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="L43" s="34" t="s">
+      <c r="M43" s="42" t="s">
         <v>573</v>
-      </c>
-      <c r="M43" s="42" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1">
@@ -9004,40 +9008,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K44" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="L44" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="L44" s="41" t="s">
-        <v>579</v>
-      </c>
       <c r="M44" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1">
@@ -10168,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -10200,37 +10204,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>581</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>582</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>584</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1">
@@ -10238,37 +10242,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>588</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>589</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>590</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1">
@@ -10276,37 +10280,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>594</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>595</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>597</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1">
@@ -10314,34 +10318,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1">
@@ -10349,13 +10353,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>603</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
@@ -10364,19 +10368,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1">
@@ -10384,37 +10388,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>331</v>
-      </c>
       <c r="E7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>607</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1">
@@ -10422,34 +10426,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1">
@@ -10460,10 +10464,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>35</v>
@@ -10472,19 +10476,19 @@
         <v>36</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
@@ -10492,34 +10496,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1">
@@ -10533,28 +10537,28 @@
         <v>42</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1">
@@ -10562,37 +10566,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>616</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>617</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>619</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1">
@@ -10600,34 +10604,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="F13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>366</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="K13" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1">
@@ -10635,34 +10639,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>622</v>
-      </c>
       <c r="E14" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>374</v>
-      </c>
       <c r="G14" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="K14" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1">
@@ -10676,7 +10680,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>16</v>
@@ -10691,13 +10695,13 @@
         <v>19</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1">
@@ -10705,34 +10709,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>628</v>
-      </c>
       <c r="J16" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1">
@@ -10740,25 +10744,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>632</v>
-      </c>
       <c r="K17" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1">
@@ -10766,37 +10770,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J18" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>638</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1">
@@ -10804,37 +10808,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="12" t="s">
         <v>641</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1">
@@ -10842,34 +10846,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>564</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H20" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>645</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
@@ -10877,37 +10881,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K21" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>648</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
@@ -10915,37 +10919,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="E22" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>651</v>
-      </c>
       <c r="G22" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="L22" s="12" t="s">
         <v>653</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
@@ -10953,34 +10957,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="E23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J23" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>655</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
@@ -10988,37 +10992,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>661</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
@@ -11026,37 +11030,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="H25" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="J25" s="12" t="s">
+      <c r="K25" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="L25" s="12" t="s">
         <v>667</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
@@ -11064,34 +11068,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>442</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>443</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
@@ -11099,34 +11103,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="J27" s="12" t="s">
+      <c r="K27" s="12" t="s">
         <v>673</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1">
@@ -11134,37 +11138,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>675</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>676</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J28" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="L28" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1">
@@ -11172,34 +11176,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1">
@@ -11207,37 +11211,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>684</v>
-      </c>
       <c r="L30" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1">
@@ -11245,37 +11249,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="G31" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J31" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>687</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1">
@@ -11283,37 +11287,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="H32" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="L32" s="12" t="s">
         <v>694</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="19.5" customHeight="1">
@@ -11321,37 +11325,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="E33" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="I33" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="K33" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="I33" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="L33" s="12" t="s">
         <v>699</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="19.5" customHeight="1">
@@ -11359,37 +11363,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="I34" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="L34" s="12" t="s">
         <v>704</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="19.5" customHeight="1">
@@ -11397,34 +11401,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I35" s="12" t="s">
+      <c r="J35" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>711</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1">
@@ -11432,34 +11436,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>714</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>715</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1">
@@ -11467,34 +11471,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E37" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>719</v>
-      </c>
       <c r="G37" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I37" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>536</v>
-      </c>
       <c r="K37" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1">
@@ -11502,34 +11506,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>722</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>723</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I38" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>725</v>
-      </c>
       <c r="K38" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="19.5" customHeight="1">
@@ -11537,37 +11541,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="H39" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>728</v>
-      </c>
       <c r="L39" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1">
@@ -11575,25 +11579,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>729</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1">
@@ -11601,37 +11605,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E41" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="G41" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>732</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19.5" customHeight="1"/>

--- a/xlsx/sheet.xlsx
+++ b/xlsx/sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kono.arisa/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1259A164-40EA-F243-8E85-CC6A9B4DBA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7ED4E-10A0-5943-BDD5-4943DE071337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="2500" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33160" yWindow="2580" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="747">
   <si>
     <t>id</t>
   </si>
@@ -281,15 +281,6 @@
   </si>
   <si>
     <t>https://www.hitachi-solutions-create.co.jp/recruit/fresh/index.html</t>
-  </si>
-  <si>
-    <t>SE
-営業
-経理財務
-資材調達
-人事総務
-知財・法務
-企画</t>
   </si>
   <si>
     <t>資格取得バックアップ
@@ -3607,6 +3598,21 @@
   </si>
   <si>
     <t>https://secure-web.cisco.com/1-7dFYpkDnJPlCw9vegiIvd5uTllYICE9dThuBeXbNi0om3gAcOIuOOOq6LEAkc7wQajtaeWB3DPJxPb9fF5poGG4xEEX1daxnrTijwdfUv9M3DzeNxAN7jXYcA2KXBBAHF39iU2Bh6XS3cZzKZnn9HK6_7dG6vquj7UMCzto68l1WhtK6tYnaePECClEQ7MQ5Y3lLgMb9t-hYze-SaIIRPuxfMIZCRT7ChFLjOFBYKZVs0-iS2H3beq6wMGbbUzTR1lAkmMiFe8-vLbntUwAz_reMjrjperfjImdUKxM1rDsPNmtRaJuZhvGxEa4E6Rd0WILFnZ6yWpffB3S-10CwQ/https%3A%2F%2Fconvert.jobtv.mynavi.jp%2Frlink%3Fuc%3D27s106366vod01</t>
+    <phoneticPr fontId="34"/>
+  </si>
+  <si>
+    <t>学部不問</t>
+    <phoneticPr fontId="34"/>
+  </si>
+  <si>
+    <t>SE
+営業
+経理財務
+資材調達
+人事総務
+知財・法務
+企画
+その他</t>
     <phoneticPr fontId="34"/>
   </si>
 </sst>
@@ -3884,7 +3890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3925,6 +3931,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3970,7 +3982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4159,6 +4171,9 @@
     </xf>
     <xf numFmtId="56" fontId="35" fillId="6" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4379,10 +4394,10 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I51" sqref="I51:I52"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4512,7 +4527,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>20</v>
@@ -4600,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>20</v>
@@ -4612,7 +4627,7 @@
         <v>22</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>48</v>
@@ -4684,26 +4699,26 @@
       <c r="E7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>63</v>
+      <c r="F7" s="63" t="s">
+        <v>746</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>745</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>22</v>
@@ -4717,19 +4732,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>46</v>
@@ -4738,16 +4753,16 @@
         <v>20</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>22</v>
@@ -4761,19 +4776,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>77</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>19</v>
@@ -4791,7 +4806,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>22</v>
@@ -4805,16 +4820,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -4826,16 +4841,16 @@
         <v>20</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>22</v>
@@ -4849,19 +4864,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>19</v>
@@ -4870,16 +4885,16 @@
         <v>20</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>22</v>
@@ -4893,19 +4908,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>19</v>
@@ -4914,7 +4929,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>22</v>
@@ -4923,7 +4938,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>22</v>
@@ -4937,19 +4952,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>46</v>
@@ -4967,7 +4982,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>22</v>
@@ -4981,37 +4996,37 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>22</v>
@@ -5025,19 +5040,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -5046,7 +5061,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>22</v>
@@ -5055,7 +5070,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>22</v>
@@ -5069,28 +5084,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>22</v>
@@ -5099,7 +5114,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>22</v>
@@ -5113,19 +5128,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>46</v>
@@ -5134,16 +5149,16 @@
         <v>20</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>22</v>
@@ -5157,28 +5172,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>22</v>
@@ -5187,7 +5202,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>22</v>
@@ -5201,28 +5216,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="D19" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="51" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>22</v>
@@ -5231,7 +5246,7 @@
         <v>22</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>22</v>
@@ -5245,37 +5260,37 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>22</v>
@@ -5289,37 +5304,37 @@
         <v>19</v>
       </c>
       <c r="B21" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L21" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>22</v>
@@ -5333,37 +5348,37 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="H22" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>175</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>22</v>
@@ -5377,28 +5392,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="H23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>22</v>
@@ -5407,7 +5422,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>22</v>
@@ -5421,37 +5436,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="H24" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>22</v>
@@ -5465,37 +5480,37 @@
         <v>23</v>
       </c>
       <c r="B25" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L25" s="59" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>22</v>
@@ -5509,37 +5524,37 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>203</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>22</v>
@@ -5553,28 +5568,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>22</v>
@@ -5583,7 +5598,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>22</v>
@@ -5597,28 +5612,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="F28" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="51" t="s">
-        <v>740</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="H28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>22</v>
@@ -5627,7 +5642,7 @@
         <v>22</v>
       </c>
       <c r="L28" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>22</v>
@@ -5641,37 +5656,37 @@
         <v>27</v>
       </c>
       <c r="B29" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="E29" s="60" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>22</v>
@@ -5685,37 +5700,37 @@
         <v>28</v>
       </c>
       <c r="B30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>742</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K30" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>233</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>22</v>
@@ -5729,28 +5744,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>22</v>
@@ -5759,7 +5774,7 @@
         <v>22</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>22</v>
@@ -5773,37 +5788,37 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="F32" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>22</v>
@@ -5817,28 +5832,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="F33" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>22</v>
@@ -5847,7 +5862,7 @@
         <v>22</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>22</v>
@@ -5861,25 +5876,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="E34" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>21</v>
@@ -5888,10 +5903,10 @@
         <v>22</v>
       </c>
       <c r="K34" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>266</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>22</v>
@@ -5905,28 +5920,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="F35" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>22</v>
@@ -5935,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>22</v>
@@ -5949,28 +5964,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="F36" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>22</v>
@@ -5979,7 +5994,7 @@
         <v>22</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>22</v>
@@ -5993,28 +6008,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="F37" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>22</v>
@@ -6023,7 +6038,7 @@
         <v>22</v>
       </c>
       <c r="L37" s="49" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>22</v>
@@ -6037,28 +6052,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="F38" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>22</v>
@@ -6067,7 +6082,7 @@
         <v>22</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>22</v>
@@ -7295,7 +7310,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -7330,34 +7345,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>298</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>299</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="12" t="s">
@@ -7369,19 +7384,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>304</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>305</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>18</v>
@@ -7390,19 +7405,19 @@
         <v>19</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>309</v>
-      </c>
       <c r="M3" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" customHeight="1">
@@ -7410,38 +7425,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="G4" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="36" t="s">
         <v>318</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>319</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1">
@@ -7449,38 +7464,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1">
@@ -7491,10 +7506,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>27</v>
@@ -7503,19 +7518,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="12" t="s">
@@ -7530,10 +7545,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>52</v>
@@ -7542,22 +7557,22 @@
         <v>53</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="34" t="s">
         <v>332</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>333</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>57</v>
@@ -7568,38 +7583,38 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>77</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1">
@@ -7610,10 +7625,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>35</v>
@@ -7622,19 +7637,19 @@
         <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="12" t="s">
@@ -7646,40 +7661,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="L10" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="L10" s="34" t="s">
+      <c r="M10" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" customHeight="1">
@@ -7687,40 +7702,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="32" t="s">
+      <c r="L11" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="L11" s="34" t="s">
-        <v>350</v>
-      </c>
       <c r="M11" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1">
@@ -7734,7 +7749,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>43</v>
@@ -7743,22 +7758,22 @@
         <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K12" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="L12" s="34" t="s">
         <v>354</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>355</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>48</v>
@@ -7769,40 +7784,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J13" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K13" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="L13" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="M13" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1">
@@ -7810,13 +7825,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>61</v>
@@ -7825,23 +7840,23 @@
         <v>62</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K14" s="37" t="s">
         <v>366</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>367</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1">
@@ -7849,19 +7864,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>372</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>373</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>18</v>
@@ -7870,19 +7885,19 @@
         <v>19</v>
       </c>
       <c r="I15" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="K15" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="L15" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="M15" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1">
@@ -7896,7 +7911,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>16</v>
@@ -7911,17 +7926,17 @@
         <v>19</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L16" s="33"/>
       <c r="M16" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1">
@@ -7929,38 +7944,38 @@
         <v>15</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="40" t="s">
         <v>382</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>383</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1">
@@ -7968,40 +7983,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="G18" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J18" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="K18" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>388</v>
-      </c>
       <c r="M18" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
@@ -8009,40 +8024,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="28" t="s">
+      <c r="H19" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="L19" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="L19" s="34" t="s">
-        <v>395</v>
-      </c>
       <c r="M19" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1">
@@ -8050,40 +8065,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="37" t="s">
+      <c r="L20" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="L20" s="41" t="s">
-        <v>401</v>
-      </c>
       <c r="M20" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1">
@@ -8091,38 +8106,38 @@
         <v>19</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="K21" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1">
@@ -8130,40 +8145,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22" s="32" t="s">
+      <c r="L22" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="M22" s="42" t="s">
         <v>413</v>
-      </c>
-      <c r="M22" s="42" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="19.5" customHeight="1">
@@ -8171,38 +8186,38 @@
         <v>21</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="E23" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>214</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="37" t="s">
         <v>417</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>418</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1">
@@ -8210,38 +8225,38 @@
         <v>22</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="E24" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="G24" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1">
@@ -8249,40 +8264,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="D25" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="F25" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="L25" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="L25" s="39" t="s">
-        <v>429</v>
-      </c>
       <c r="M25" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1">
@@ -8290,40 +8305,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="30" t="s">
+      <c r="G26" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K26" s="37" t="s">
+      <c r="L26" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="L26" s="43" t="s">
-        <v>437</v>
-      </c>
       <c r="M26" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1">
@@ -8331,38 +8346,38 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="G27" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" customHeight="1">
@@ -8370,40 +8385,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="44" t="s">
+      <c r="G28" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K28" s="32" t="s">
+      <c r="L28" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="L28" s="34" t="s">
-        <v>453</v>
-      </c>
       <c r="M28" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1">
@@ -8411,38 +8426,38 @@
         <v>27</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="F29" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="K29" s="37" t="s">
         <v>458</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>459</v>
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1">
@@ -8450,40 +8465,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K30" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>465</v>
-      </c>
       <c r="L30" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="M30" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1">
@@ -8491,36 +8506,36 @@
         <v>29</v>
       </c>
       <c r="B31" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="29" t="s">
         <v>468</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>469</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="32" t="s">
         <v>472</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>473</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1">
@@ -8528,40 +8543,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="E32" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="F32" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="L32" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="L32" s="34" t="s">
-        <v>481</v>
-      </c>
       <c r="M32" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1">
@@ -8569,38 +8584,38 @@
         <v>31</v>
       </c>
       <c r="B33" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="F33" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I33" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="K33" s="37" t="s">
         <v>485</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>486</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1">
@@ -8608,40 +8623,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="F34" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="E34" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="F34" s="30" t="s">
+      <c r="G34" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="L34" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="L34" s="34" t="s">
-        <v>495</v>
-      </c>
       <c r="M34" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1">
@@ -8649,38 +8664,38 @@
         <v>33</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E35" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="37" t="s">
         <v>499</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>500</v>
       </c>
       <c r="L35" s="33"/>
       <c r="M35" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1">
@@ -8688,38 +8703,38 @@
         <v>34</v>
       </c>
       <c r="B36" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="F36" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="G36" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="J36" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="37" t="s">
         <v>510</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>511</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1">
@@ -8727,40 +8742,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="E37" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="F37" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="J37" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="K37" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="L37" s="34" t="s">
         <v>519</v>
       </c>
-      <c r="L37" s="34" t="s">
-        <v>520</v>
-      </c>
       <c r="M37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1">
@@ -8768,40 +8783,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>521</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="D38" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="E38" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="F38" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="G38" s="31" t="s">
         <v>525</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>526</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I38" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="L38" s="34" t="s">
+      <c r="M38" s="12" t="s">
         <v>528</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1">
@@ -8809,38 +8824,38 @@
         <v>37</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="F39" s="30" t="s">
+      <c r="G39" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>535</v>
-      </c>
       <c r="K39" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L39" s="33"/>
       <c r="M39" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1">
@@ -8848,38 +8863,38 @@
         <v>38</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D40" s="31" t="s">
         <v>536</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="E40" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="K40" s="32" t="s">
         <v>540</v>
-      </c>
-      <c r="K40" s="32" t="s">
-        <v>541</v>
       </c>
       <c r="L40" s="33"/>
       <c r="M40" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1">
@@ -8887,40 +8902,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="F41" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="G41" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="H41" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="I41" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="K41" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="K41" s="32" t="s">
+      <c r="L41" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="M41" s="12" t="s">
         <v>551</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1">
@@ -8928,38 +8943,38 @@
         <v>40</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="F42" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="G42" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J42" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="K42" s="32" t="s">
         <v>559</v>
-      </c>
-      <c r="K42" s="32" t="s">
-        <v>560</v>
       </c>
       <c r="L42" s="33"/>
       <c r="M42" s="38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19.5" customHeight="1">
@@ -8967,40 +8982,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="29" t="s">
         <v>564</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="F43" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="G43" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="32" t="s">
         <v>570</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="L43" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="L43" s="34" t="s">
+      <c r="M43" s="42" t="s">
         <v>572</v>
-      </c>
-      <c r="M43" s="42" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1">
@@ -9008,40 +9023,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K44" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="L44" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="L44" s="41" t="s">
-        <v>578</v>
-      </c>
       <c r="M44" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1">
@@ -10172,7 +10187,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -10204,37 +10219,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>580</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>581</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>583</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1">
@@ -10242,37 +10257,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>587</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>588</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>589</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1">
@@ -10280,37 +10295,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>593</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>594</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>596</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1">
@@ -10318,34 +10333,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1">
@@ -10353,13 +10368,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
@@ -10368,19 +10383,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1">
@@ -10391,10 +10406,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>330</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>52</v>
@@ -10403,22 +10418,22 @@
         <v>53</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>606</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1">
@@ -10426,34 +10441,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1">
@@ -10464,10 +10479,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>35</v>
@@ -10476,19 +10491,19 @@
         <v>36</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
@@ -10496,34 +10511,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1">
@@ -10537,28 +10552,28 @@
         <v>42</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1">
@@ -10566,37 +10581,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>616</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>618</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1">
@@ -10604,13 +10619,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>61</v>
@@ -10619,19 +10634,19 @@
         <v>62</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>307</v>
-      </c>
       <c r="K13" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1">
@@ -10639,34 +10654,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>621</v>
-      </c>
       <c r="E14" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>373</v>
-      </c>
       <c r="G14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>307</v>
-      </c>
       <c r="K14" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1">
@@ -10680,7 +10695,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>16</v>
@@ -10695,13 +10710,13 @@
         <v>19</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1">
@@ -10709,34 +10724,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>627</v>
-      </c>
       <c r="J16" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1">
@@ -10744,25 +10759,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>631</v>
-      </c>
       <c r="K17" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1">
@@ -10770,37 +10785,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="J18" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>637</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1">
@@ -10808,37 +10823,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="12" t="s">
         <v>640</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1">
@@ -10846,34 +10861,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>563</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H20" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>644</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
@@ -10881,37 +10896,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>410</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K21" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>647</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
@@ -10919,37 +10934,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="E22" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>650</v>
-      </c>
       <c r="G22" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="L22" s="12" t="s">
         <v>652</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
@@ -10957,34 +10972,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>420</v>
-      </c>
       <c r="E23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J23" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>654</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
@@ -10992,37 +11007,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>660</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
@@ -11030,37 +11045,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="H25" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="J25" s="12" t="s">
+      <c r="K25" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="L25" s="12" t="s">
         <v>666</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
@@ -11068,34 +11083,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>442</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
@@ -11103,34 +11118,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="J27" s="12" t="s">
+      <c r="K27" s="12" t="s">
         <v>672</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1">
@@ -11138,37 +11153,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>674</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>675</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J28" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="L28" s="12" t="s">
         <v>677</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1">
@@ -11176,34 +11191,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>680</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1">
@@ -11211,37 +11226,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>683</v>
-      </c>
       <c r="L30" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1">
@@ -11249,37 +11264,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="G31" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J31" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>686</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1">
@@ -11287,37 +11302,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="H32" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="L32" s="12" t="s">
         <v>693</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="19.5" customHeight="1">
@@ -11325,37 +11340,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="E33" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="I33" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="K33" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="I33" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="L33" s="12" t="s">
         <v>698</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="19.5" customHeight="1">
@@ -11363,37 +11378,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="I34" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="L34" s="12" t="s">
         <v>703</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="19.5" customHeight="1">
@@ -11401,34 +11416,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="12" t="s">
+      <c r="J35" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>710</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1">
@@ -11436,34 +11451,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>713</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>714</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1">
@@ -11471,34 +11486,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E37" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>718</v>
-      </c>
       <c r="G37" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I37" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>535</v>
-      </c>
       <c r="K37" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1">
@@ -11506,34 +11521,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>721</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>722</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I38" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>724</v>
-      </c>
       <c r="K38" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="19.5" customHeight="1">
@@ -11541,37 +11556,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="H39" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>727</v>
-      </c>
       <c r="L39" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1">
@@ -11579,25 +11594,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>728</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1">
@@ -11605,37 +11620,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E41" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>262</v>
-      </c>
       <c r="G41" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>731</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19.5" customHeight="1"/>

--- a/xlsx/sheet.xlsx
+++ b/xlsx/sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kono.arisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kono.arisa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7ED4E-10A0-5943-BDD5-4943DE071337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA758FBD-9D98-1D48-AC2F-EEBBDEF2CCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33160" yWindow="2580" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32220" yWindow="2780" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="783">
   <si>
     <t>id</t>
   </si>
@@ -223,6 +223,9 @@
 服装自由</t>
   </si>
   <si>
+    <t>https://webseminar.jobtv.mynavi.jp/-site_media/media/lc/qarnqjelhlfraye_24658/1/index.html</t>
+  </si>
+  <si>
     <t>img17.jpg</t>
   </si>
   <si>
@@ -281,6 +284,15 @@
   </si>
   <si>
     <t>https://www.hitachi-solutions-create.co.jp/recruit/fresh/index.html</t>
+  </si>
+  <si>
+    <t>SE
+営業
+経理財務
+資材調達
+人事総務
+知財・法務
+企画</t>
   </si>
   <si>
     <t>資格取得バックアップ
@@ -3597,30 +3609,158 @@
     <phoneticPr fontId="34"/>
   </si>
   <si>
-    <t>https://secure-web.cisco.com/1-7dFYpkDnJPlCw9vegiIvd5uTllYICE9dThuBeXbNi0om3gAcOIuOOOq6LEAkc7wQajtaeWB3DPJxPb9fF5poGG4xEEX1daxnrTijwdfUv9M3DzeNxAN7jXYcA2KXBBAHF39iU2Bh6XS3cZzKZnn9HK6_7dG6vquj7UMCzto68l1WhtK6tYnaePECClEQ7MQ5Y3lLgMb9t-hYze-SaIIRPuxfMIZCRT7ChFLjOFBYKZVs0-iS2H3beq6wMGbbUzTR1lAkmMiFe8-vLbntUwAz_reMjrjperfjImdUKxM1rDsPNmtRaJuZhvGxEa4E6Rd0WILFnZ6yWpffB3S-10CwQ/https%3A%2F%2Fconvert.jobtv.mynavi.jp%2Frlink%3Fuc%3D27s106366vod01</t>
-    <phoneticPr fontId="34"/>
-  </si>
-  <si>
-    <t>学部不問</t>
-    <phoneticPr fontId="34"/>
-  </si>
-  <si>
-    <t>SE
-営業
-経理財務
-資材調達
-人事総務
-知財・法務
-企画
-その他</t>
-    <phoneticPr fontId="34"/>
+    <t>https://job.mynavi.jp/27/pc/search/corp211567/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp85796/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp39024/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp106366/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp60422/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp75271/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp230709/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp65385/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp39140/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp271789/outline.html</t>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp271802/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp91868/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp503/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp103660/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp282962/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp203209/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp113322/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp231127/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp91623/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp53009/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp3427/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp206285/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp52667/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp205232/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp238762/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp2238/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp65653/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp113326/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp1562/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp75657/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp203005/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp205605/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp110190/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp216356/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp76905/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp113328/outline.html</t>
+    <phoneticPr fontId="40"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/search/corp265535/outline.html</t>
+    <phoneticPr fontId="40"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3889,8 +4029,30 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3927,20 +4089,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3977,12 +4127,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4022,32 +4187,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4124,56 +4268,86 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="35" fillId="6" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4397,7 +4571,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4441,7 +4615,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -4491,8 +4665,8 @@
       <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
+      <c r="J2" s="64" t="s">
+        <v>746</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>22</v>
@@ -4511,37 +4685,37 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>732</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="64" t="s">
+        <v>747</v>
+      </c>
+      <c r="K3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="47" t="s">
         <v>31</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -4555,37 +4729,37 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="64" t="s">
+        <v>748</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="47" t="s">
         <v>39</v>
       </c>
       <c r="M4" s="9" t="s">
@@ -4599,126 +4773,126 @@
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>732</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="62" t="s">
-        <v>744</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="J5" s="64" t="s">
+        <v>749</v>
+      </c>
+      <c r="K5" s="44" t="s">
         <v>48</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="I6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="J6" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="K6" s="48" t="s">
         <v>57</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>58</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="63" t="s">
-        <v>746</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="E7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>733</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>64</v>
+      <c r="I7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>751</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>735</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>22</v>
@@ -4731,38 +4905,38 @@
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="E8" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="14" t="s">
+      <c r="I8" s="42" t="s">
         <v>72</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>752</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>22</v>
@@ -4775,38 +4949,38 @@
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="64" t="s">
+        <v>753</v>
+      </c>
+      <c r="K9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>77</v>
+      <c r="L9" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>22</v>
@@ -4819,38 +4993,38 @@
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="C10" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="14" t="s">
+      <c r="I10" s="42" t="s">
         <v>84</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>754</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>86</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>22</v>
@@ -4863,82 +5037,82 @@
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="E11" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="14" t="s">
+      <c r="I11" s="42" t="s">
         <v>98</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>755</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="B12" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="D12" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>756</v>
+      </c>
+      <c r="K12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>90</v>
+      <c r="L12" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>22</v>
@@ -4951,82 +5125,82 @@
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="E13" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="K13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>104</v>
+      <c r="L13" s="47" t="s">
+        <v>106</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="F14" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="I14" s="42" t="s">
         <v>113</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>758</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>22</v>
@@ -5039,38 +5213,38 @@
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="C15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="E15" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="K15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>119</v>
+      <c r="L15" s="47" t="s">
+        <v>121</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>22</v>
@@ -5083,38 +5257,38 @@
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="B16" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="F16" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>760</v>
+      </c>
+      <c r="K16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>126</v>
+      <c r="L16" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>22</v>
@@ -5127,38 +5301,38 @@
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="B17" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="14" t="s">
+      <c r="I17" s="42" t="s">
         <v>134</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>136</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>22</v>
@@ -5171,38 +5345,38 @@
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="B18" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="C18" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="E18" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="H18" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="K18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>142</v>
+      <c r="L18" s="47" t="s">
+        <v>144</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>22</v>
@@ -5215,126 +5389,126 @@
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="B19" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>734</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="D19" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="E19" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="F19" s="45" t="s">
+        <v>736</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>763</v>
+      </c>
+      <c r="K19" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="53" t="s">
-        <v>149</v>
+      <c r="L19" s="47" t="s">
+        <v>151</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="C20" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="E20" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="14" t="s">
+      <c r="H20" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="42" t="s">
         <v>157</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>764</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="C21" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="D21" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="E21" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="F21" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="G21" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="L21" s="49" t="s">
-        <v>735</v>
+      <c r="H21" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>765</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>737</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>22</v>
@@ -5347,38 +5521,38 @@
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="C22" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="E22" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="F22" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="G22" s="42" t="s">
         <v>174</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="J22" s="66" t="s">
+        <v>766</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>176</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>22</v>
@@ -5391,38 +5565,38 @@
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="B23" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="E23" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>736</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="F23" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="J23" s="66" t="s">
+        <v>767</v>
+      </c>
+      <c r="K23" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="58" t="s">
-        <v>181</v>
+      <c r="L23" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>22</v>
@@ -5435,38 +5609,38 @@
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="E24" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="F24" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="G24" s="42" t="s">
         <v>189</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>768</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>22</v>
@@ -5479,38 +5653,38 @@
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="B25" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="C25" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="D25" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="E25" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>738</v>
+      <c r="H25" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" s="47" t="s">
+        <v>740</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>22</v>
@@ -5523,126 +5697,126 @@
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="B26" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="C26" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="D26" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>202</v>
+      <c r="H26" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>770</v>
+      </c>
+      <c r="K26" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="47" t="s">
+        <v>204</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>743</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="41" t="s">
+        <v>745</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="D27" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J27" s="20" t="s">
+      <c r="H27" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="K27" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>209</v>
+      <c r="L27" s="47" t="s">
+        <v>211</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="19.5" customHeight="1">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="B28" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="C28" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="51" t="s">
-        <v>739</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="D28" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="E28" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>772</v>
+      </c>
+      <c r="K28" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="53" t="s">
-        <v>215</v>
+      <c r="L28" s="47" t="s">
+        <v>217</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>22</v>
@@ -5655,38 +5829,38 @@
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="B29" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>740</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="C29" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="8" t="s">
+      <c r="E29" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="F29" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="15" t="s">
+      <c r="G29" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="H29" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="42" t="s">
         <v>224</v>
+      </c>
+      <c r="J29" s="66" t="s">
+        <v>773</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" s="47" t="s">
+        <v>226</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>22</v>
@@ -5699,38 +5873,38 @@
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="C30" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="D30" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="51" t="s">
-        <v>741</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="8" t="s">
+      <c r="E30" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="16" t="s">
+      <c r="F30" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="G30" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="42" t="s">
         <v>232</v>
+      </c>
+      <c r="J30" s="66" t="s">
+        <v>774</v>
+      </c>
+      <c r="K30" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" s="47" t="s">
+        <v>234</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>22</v>
@@ -5743,38 +5917,38 @@
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="D31" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="E31" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="F31" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="66" t="s">
+        <v>775</v>
+      </c>
+      <c r="K31" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>239</v>
+      <c r="L31" s="47" t="s">
+        <v>241</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>22</v>
@@ -5787,38 +5961,38 @@
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="B32" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="D32" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="E32" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="F32" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="15" t="s">
+      <c r="G32" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="H32" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="42" t="s">
         <v>248</v>
+      </c>
+      <c r="J32" s="66" t="s">
+        <v>776</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>22</v>
@@ -5831,126 +6005,126 @@
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="B33" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="C33" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="E33" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="F33" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="G33" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="H33" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" s="66" t="s">
+        <v>777</v>
+      </c>
+      <c r="K33" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>257</v>
+      <c r="L33" s="47" t="s">
+        <v>259</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="19.5" customHeight="1">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="21" t="s">
+      <c r="B34" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="C34" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="D34" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="E34" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="F34" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="I34" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>265</v>
+      <c r="J34" s="66" t="s">
+        <v>778</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" s="47" t="s">
+        <v>267</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="19.5" customHeight="1">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="B35" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="C35" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="D35" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="E35" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="H35" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>779</v>
+      </c>
+      <c r="K35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>272</v>
+      <c r="L35" s="47" t="s">
+        <v>274</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>22</v>
@@ -5963,38 +6137,38 @@
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="B36" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="C36" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="D36" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="E36" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="J36" s="9" t="s">
+      <c r="H36" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" s="66" t="s">
+        <v>780</v>
+      </c>
+      <c r="K36" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>279</v>
+      <c r="L36" s="47" t="s">
+        <v>281</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>22</v>
@@ -6007,38 +6181,38 @@
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="B37" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="C37" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="D37" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I37" s="8" t="s">
+      <c r="E37" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="F37" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>781</v>
+      </c>
+      <c r="K37" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="49" t="s">
-        <v>742</v>
+      <c r="L37" s="47" t="s">
+        <v>744</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>22</v>
@@ -6051,38 +6225,38 @@
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="B38" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="C38" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="D38" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="E38" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="F38" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="G38" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="H38" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" s="66" t="s">
+        <v>782</v>
+      </c>
+      <c r="K38" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>294</v>
+      <c r="L38" s="47" t="s">
+        <v>296</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>22</v>
@@ -6095,17 +6269,17 @@
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="11"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="63"/>
       <c r="M39" s="9" t="s">
         <v>22</v>
       </c>
@@ -6116,14 +6290,14 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="11"/>
       <c r="M40" s="9" t="s">
         <v>22</v>
@@ -6135,14 +6309,14 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="26"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="11"/>
       <c r="M41" s="9" t="s">
         <v>22</v>
@@ -6154,15 +6328,15 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="14"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="13"/>
       <c r="M42" s="9" t="s">
         <v>22</v>
       </c>
@@ -6173,15 +6347,15 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="18"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="14"/>
       <c r="M43" s="9" t="s">
         <v>22</v>
       </c>
@@ -6192,14 +6366,14 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="27"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="11"/>
       <c r="M44" s="9" t="s">
         <v>22</v>
@@ -7180,90 +7354,126 @@
     <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D21" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D22" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D23" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D24" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E24" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K24" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D25" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E25" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K25" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D26" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E26" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K26" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D27" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E27" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D28" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E28" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D29" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E29" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K29" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D30" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E30" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K30" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D31" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E31" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D32" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E32" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K32" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D33" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E33" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D34" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E34" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K34" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D35" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E35" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D36" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E36" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D37" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E37" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D38" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E38" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D12" r:id="rId86" xr:uid="{4FA94DCE-C28F-B543-8D35-3E8716393686}"/>
-    <hyperlink ref="E12" r:id="rId87" xr:uid="{38E7E8F5-0165-2A43-8711-0AC2DD8BBDBC}"/>
-    <hyperlink ref="D11" r:id="rId88" xr:uid="{7567E5A9-33FD-794C-95E9-86BA23852575}"/>
-    <hyperlink ref="E11" r:id="rId89" xr:uid="{C1A48E56-5821-EE41-AA91-9E3F6F2FE5AE}"/>
-    <hyperlink ref="K11" r:id="rId90" xr:uid="{49CFF2A0-CF79-AF4B-AA4B-23470FDA9D90}"/>
-    <hyperlink ref="K7" r:id="rId91" xr:uid="{2B7D0943-8701-684E-A0F3-F12393FED575}"/>
-    <hyperlink ref="K5" r:id="rId92" display="https://secure-web.cisco.com/1-7dFYpkDnJPlCw9vegiIvd5uTllYICE9dThuBeXbNi0om3gAcOIuOOOq6LEAkc7wQajtaeWB3DPJxPb9fF5poGG4xEEX1daxnrTijwdfUv9M3DzeNxAN7jXYcA2KXBBAHF39iU2Bh6XS3cZzKZnn9HK6_7dG6vquj7UMCzto68l1WhtK6tYnaePECClEQ7MQ5Y3lLgMb9t-hYze-SaIIRPuxfMIZCRT7ChFLjOFBYKZVs0-iS2H3beq6wMGbbUzTR1lAkmMiFe8-vLbntUwAz_reMjrjperfjImdUKxM1rDsPNmtRaJuZhvGxEa4E6Rd0WILFnZ6yWpffB3S-10CwQ/https%3A%2F%2Fconvert.jobtv.mynavi.jp%2Frlink%3Fuc%3D27s106366vod01" xr:uid="{79E5543A-02AC-DB48-AB94-C202CE76E246}"/>
+    <hyperlink ref="K5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K14" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E19" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E23" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D24" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E24" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K24" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D25" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E25" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K25" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D26" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E26" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D27" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E27" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D28" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E28" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D29" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E29" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K29" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D30" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E30" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K30" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D31" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E31" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D32" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E32" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K32" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D33" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E33" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D34" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E34" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K34" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D35" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E35" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D36" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E36" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D37" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E37" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D38" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E38" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D12" r:id="rId87" xr:uid="{4FA94DCE-C28F-B543-8D35-3E8716393686}"/>
+    <hyperlink ref="E12" r:id="rId88" xr:uid="{38E7E8F5-0165-2A43-8711-0AC2DD8BBDBC}"/>
+    <hyperlink ref="D11" r:id="rId89" xr:uid="{7567E5A9-33FD-794C-95E9-86BA23852575}"/>
+    <hyperlink ref="E11" r:id="rId90" xr:uid="{C1A48E56-5821-EE41-AA91-9E3F6F2FE5AE}"/>
+    <hyperlink ref="K11" r:id="rId91" xr:uid="{49CFF2A0-CF79-AF4B-AA4B-23470FDA9D90}"/>
+    <hyperlink ref="K7" r:id="rId92" xr:uid="{2B7D0943-8701-684E-A0F3-F12393FED575}"/>
+    <hyperlink ref="J2" r:id="rId93" xr:uid="{DA30B212-8918-DD41-85BC-08476F3528DE}"/>
+    <hyperlink ref="J3" r:id="rId94" xr:uid="{1796D8F4-17AE-EB42-B375-66669C71DF99}"/>
+    <hyperlink ref="J4" r:id="rId95" xr:uid="{D0BB3276-F751-D84F-B0F7-DBA512AE00D2}"/>
+    <hyperlink ref="J5" r:id="rId96" xr:uid="{6B74B9C7-6617-A749-95CF-86D76D9C8979}"/>
+    <hyperlink ref="J6" r:id="rId97" xr:uid="{761F9C85-9E1A-3546-AF44-7D350E049717}"/>
+    <hyperlink ref="J7" r:id="rId98" xr:uid="{5E0C7834-97D7-0D40-B1A5-D481BB516D10}"/>
+    <hyperlink ref="J8" r:id="rId99" xr:uid="{B658E46D-DEB0-4D4E-BDD1-26BCE8BD2FCA}"/>
+    <hyperlink ref="J9" r:id="rId100" xr:uid="{33B8ABB3-ADD0-5B47-9954-135319D94E9E}"/>
+    <hyperlink ref="J10" r:id="rId101" xr:uid="{4676D34D-61A8-1D4F-8525-15DCC63871CE}"/>
+    <hyperlink ref="J12" r:id="rId102" xr:uid="{CD64569C-B1A7-8040-91BE-3873FA4EB300}"/>
+    <hyperlink ref="J13" r:id="rId103" xr:uid="{A37FBE67-470A-E34A-B380-F759A4F716A2}"/>
+    <hyperlink ref="J14" r:id="rId104" xr:uid="{9F08C6A5-222E-074F-B3F5-A60C94E2392B}"/>
+    <hyperlink ref="J15" r:id="rId105" xr:uid="{28B63644-8E8B-5A47-A763-63CB0198777B}"/>
+    <hyperlink ref="J16" r:id="rId106" xr:uid="{720D060F-780C-EF48-8073-59CC8A4FFC13}"/>
+    <hyperlink ref="J17" r:id="rId107" xr:uid="{0A827A3F-B4ED-6548-9C3F-C1CEE6FB009E}"/>
+    <hyperlink ref="J18" r:id="rId108" xr:uid="{E4614934-9088-D646-868F-B65FA3890C9C}"/>
+    <hyperlink ref="J19" r:id="rId109" xr:uid="{BB3E2884-F109-E74C-A01B-E0DEF7280447}"/>
+    <hyperlink ref="J20" r:id="rId110" xr:uid="{D019559E-AA32-6D42-82CA-CD7B7A8BEAD5}"/>
+    <hyperlink ref="J21" r:id="rId111" xr:uid="{9B94A9B4-D2BE-2043-A102-BE5DF76F6F19}"/>
+    <hyperlink ref="J22" r:id="rId112" xr:uid="{6FDA53C8-38C7-C848-854E-6C1FA535D12A}"/>
+    <hyperlink ref="J23" r:id="rId113" xr:uid="{14C1C2F4-EA25-464B-AA0E-6F6BD6D05C31}"/>
+    <hyperlink ref="J24" r:id="rId114" xr:uid="{97A5EE93-A152-B845-BA11-CB2B0000D1A3}"/>
+    <hyperlink ref="J25" r:id="rId115" xr:uid="{7900D2A1-3F6B-2749-99F4-7205664A327C}"/>
+    <hyperlink ref="J26" r:id="rId116" xr:uid="{8FB153B3-DCF7-CB48-8F95-2E7E7E135197}"/>
+    <hyperlink ref="J27" r:id="rId117" xr:uid="{0C6E8BF2-47CD-4D41-B588-B812CC9EF412}"/>
+    <hyperlink ref="J28" r:id="rId118" xr:uid="{B9EEC0C1-14D3-8647-B150-D24932B31A88}"/>
+    <hyperlink ref="J29" r:id="rId119" xr:uid="{3D45EE10-2228-0D42-8C13-0A49F7D52994}"/>
+    <hyperlink ref="J30" r:id="rId120" xr:uid="{116BBF00-1DB8-314C-B3B1-23449E4E459C}"/>
+    <hyperlink ref="J31" r:id="rId121" xr:uid="{D8FDD01D-41D3-8444-83D6-4202BF94FF7A}"/>
+    <hyperlink ref="J32" r:id="rId122" xr:uid="{775B9906-B19F-FB43-AF14-4639054A5AAE}"/>
+    <hyperlink ref="J33" r:id="rId123" xr:uid="{64897EEA-E855-8A45-93A1-6BD60F979268}"/>
+    <hyperlink ref="J34" r:id="rId124" xr:uid="{15EA60F2-F495-A847-8313-63E5A43DE3C1}"/>
+    <hyperlink ref="J35" r:id="rId125" xr:uid="{07AB10EA-AD71-3C42-8314-F40066A76D83}"/>
+    <hyperlink ref="J36" r:id="rId126" xr:uid="{F72D3E79-7C26-6C41-ACAB-8C24866A59B7}"/>
+    <hyperlink ref="J37" r:id="rId127" xr:uid="{C7ABD315-0DDB-0840-91B5-82F41C266693}"/>
+    <hyperlink ref="J38" r:id="rId128" xr:uid="{37A4741E-8B8C-0D4B-83E6-C372518E5F9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7310,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -7344,37 +7554,37 @@
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>91</v>
+      <c r="B2" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>300</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="L2" s="33"/>
+        <v>302</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="L2" s="26"/>
       <c r="M2" s="12" t="s">
         <v>23</v>
       </c>
@@ -7383,20 +7593,20 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>302</v>
+      <c r="B3" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>304</v>
+        <v>81</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>18</v>
@@ -7405,134 +7615,134 @@
         <v>19</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="L3" s="34" t="s">
         <v>308</v>
       </c>
+      <c r="K3" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>310</v>
+      </c>
       <c r="M3" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" customHeight="1">
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>309</v>
+      <c r="B4" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="F4" s="30" t="s">
         <v>313</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>315</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="L4" s="33"/>
+        <v>319</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="26"/>
       <c r="M4" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>99</v>
+      <c r="B5" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>102</v>
+        <v>322</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="L5" s="33"/>
+      <c r="K5" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" s="26"/>
       <c r="M5" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="L6" s="33"/>
+        <v>287</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L6" s="26"/>
       <c r="M6" s="12" t="s">
         <v>31</v>
       </c>
@@ -7541,117 +7751,117 @@
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>50</v>
+      <c r="B7" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>53</v>
       </c>
+      <c r="F7" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="L7" s="34" t="s">
         <v>332</v>
       </c>
+      <c r="K7" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>334</v>
+      </c>
       <c r="M7" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>73</v>
+      <c r="B8" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>76</v>
+        <v>335</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="L8" s="33"/>
+      <c r="K8" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="L8" s="26"/>
       <c r="M8" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="23" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="L9" s="33"/>
+        <v>72</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="L9" s="26"/>
       <c r="M9" s="12" t="s">
         <v>39</v>
       </c>
@@ -7660,223 +7870,223 @@
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>65</v>
+      <c r="B10" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>68</v>
+        <v>342</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.5" customHeight="1">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>114</v>
+      <c r="B11" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="30" t="s">
         <v>346</v>
       </c>
+      <c r="E11" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>348</v>
+      </c>
       <c r="G11" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>119</v>
+        <v>72</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E12" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="L12" s="34" t="s">
         <v>354</v>
       </c>
+      <c r="K12" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>356</v>
+      </c>
       <c r="M12" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>105</v>
+      <c r="B13" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>108</v>
+        <v>358</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="L13" s="39" t="s">
         <v>360</v>
       </c>
+      <c r="K13" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>362</v>
+      </c>
       <c r="M13" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>362</v>
+      <c r="B14" s="28" t="s">
+        <v>364</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>62</v>
       </c>
+      <c r="F14" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="G14" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="L14" s="33"/>
+        <v>367</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="L14" s="26"/>
       <c r="M14" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>368</v>
+      <c r="B15" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="F15" s="30" t="s">
         <v>372</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>374</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>18</v>
@@ -7885,38 +8095,38 @@
         <v>19</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>374</v>
+        <v>308</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -7926,419 +8136,419 @@
         <v>19</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="37" t="s">
-        <v>377</v>
-      </c>
-      <c r="L16" s="33"/>
+      <c r="K16" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="L16" s="26"/>
       <c r="M16" s="12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>120</v>
+      <c r="B17" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>123</v>
+        <v>382</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="L17" s="33"/>
+        <v>273</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="L17" s="26"/>
       <c r="M17" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>127</v>
+      <c r="B18" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>386</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J18" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="K18" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="M18" s="38" t="s">
-        <v>134</v>
+      <c r="L18" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>249</v>
+      <c r="B19" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="L19" s="34" t="s">
         <v>394</v>
       </c>
+      <c r="K19" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>396</v>
+      </c>
       <c r="M19" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>158</v>
+      <c r="B20" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>161</v>
+        <v>398</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>400</v>
+        <v>166</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>402</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>286</v>
+      <c r="B21" s="28" t="s">
+        <v>288</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>289</v>
+        <v>404</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="L21" s="33"/>
-      <c r="M21" s="38" t="s">
-        <v>294</v>
+        <v>408</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="31" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>407</v>
+      <c r="B22" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>409</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>193</v>
+        <v>410</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="M22" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="25" t="s">
         <v>413</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="19.5" customHeight="1">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>210</v>
+      <c r="B23" s="28" t="s">
+        <v>212</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>213</v>
+        <v>417</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="42" t="s">
-        <v>215</v>
+        <v>143</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="35" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>135</v>
+      <c r="B24" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>138</v>
+        <v>421</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="L24" s="33"/>
+        <v>143</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="L24" s="26"/>
       <c r="M24" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>240</v>
+      <c r="B25" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>243</v>
+        <v>423</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>427</v>
-      </c>
-      <c r="L25" s="39" t="s">
         <v>428</v>
       </c>
+      <c r="K25" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>430</v>
+      </c>
       <c r="M25" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>196</v>
+      <c r="B26" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>433</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="L26" s="43" t="s">
-        <v>436</v>
+        <v>302</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>438</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1">
@@ -8346,717 +8556,717 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>442</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="L27" s="33"/>
+      <c r="K27" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="L27" s="26"/>
       <c r="M27" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" customHeight="1">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>216</v>
+      <c r="B28" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>449</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>452</v>
+        <v>224</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>454</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>143</v>
+      <c r="B29" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>146</v>
+        <v>455</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="L29" s="33"/>
+        <v>459</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="L29" s="26"/>
       <c r="M29" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>182</v>
+      <c r="B30" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>185</v>
+        <v>462</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>188</v>
+        <v>367</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>190</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>465</v>
+      <c r="B31" s="28" t="s">
+        <v>467</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="F31" s="45"/>
+        <v>469</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="F31" s="38"/>
       <c r="G31" s="6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="L31" s="33"/>
-      <c r="M31" s="38" t="s">
-        <v>473</v>
+        <v>240</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="31" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>474</v>
+      <c r="B32" s="21" t="s">
+        <v>476</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>153</v>
+        <v>477</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="H32" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="K32" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="L32" s="34" t="s">
         <v>480</v>
       </c>
+      <c r="K32" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>482</v>
+      </c>
       <c r="M32" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>203</v>
+      <c r="B33" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>206</v>
+        <v>483</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="L33" s="33"/>
+        <v>486</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="L33" s="26"/>
       <c r="M33" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>486</v>
+      <c r="B34" s="21" t="s">
+        <v>488</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>488</v>
+        <v>489</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>490</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="L34" s="34" t="s">
         <v>494</v>
       </c>
+      <c r="K34" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="M34" s="12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>233</v>
+      <c r="B35" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" s="30" t="s">
         <v>236</v>
       </c>
+      <c r="E35" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>238</v>
+      </c>
       <c r="G35" s="6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="L35" s="33"/>
+        <v>240</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="L35" s="26"/>
       <c r="M35" s="12" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>501</v>
+      <c r="B36" s="28" t="s">
+        <v>503</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="F36" s="30" t="s">
         <v>505</v>
       </c>
+      <c r="E36" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>507</v>
+      </c>
       <c r="G36" s="6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="L36" s="33"/>
+        <v>511</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="L36" s="26"/>
       <c r="M36" s="12" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="E37" s="29" t="s">
+      <c r="B37" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>170</v>
+      <c r="D37" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="K37" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="L37" s="34" t="s">
+      <c r="J37" s="24" t="s">
         <v>519</v>
       </c>
+      <c r="K37" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>521</v>
+      </c>
       <c r="M37" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="D38" s="31" t="s">
+      <c r="B38" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="C38" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="D38" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="E38" s="22" t="s">
         <v>525</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>527</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="31" t="s">
-        <v>526</v>
+      <c r="I38" s="24" t="s">
+        <v>528</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="L38" s="34" t="s">
-        <v>527</v>
+        <v>248</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>529</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="35" t="s">
-        <v>266</v>
+      <c r="B39" s="28" t="s">
+        <v>268</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>533</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="K39" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="K39" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="L39" s="33"/>
+      <c r="L39" s="26"/>
       <c r="M39" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>273</v>
+      <c r="B40" s="21" t="s">
+        <v>275</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>276</v>
+        <v>537</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="K40" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="L40" s="33"/>
+        <v>541</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="L40" s="26"/>
       <c r="M40" s="12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1">
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>541</v>
+      <c r="B41" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="F41" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="E41" s="22" t="s">
         <v>546</v>
       </c>
+      <c r="F41" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>548</v>
+      </c>
       <c r="H41" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="K41" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="L41" s="34" t="s">
         <v>550</v>
       </c>
+      <c r="K41" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>552</v>
+      </c>
       <c r="M41" s="12" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1">
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="35" t="s">
-        <v>552</v>
+      <c r="B42" s="28" t="s">
+        <v>554</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F42" s="30" t="s">
         <v>556</v>
       </c>
+      <c r="E42" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>558</v>
+      </c>
       <c r="G42" s="6" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="K42" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="L42" s="33"/>
-      <c r="M42" s="38" t="s">
         <v>560</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="L42" s="26"/>
+      <c r="M42" s="31" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19.5" customHeight="1">
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>561</v>
+      <c r="B43" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="F43" s="30" t="s">
         <v>565</v>
       </c>
+      <c r="E43" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>567</v>
+      </c>
       <c r="G43" s="6" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="K43" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="L43" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="M43" s="42" t="s">
+      <c r="K43" s="25" t="s">
         <v>572</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="M43" s="35" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1">
       <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>258</v>
+      <c r="B44" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>261</v>
+        <v>576</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="L44" s="41" t="s">
-        <v>577</v>
+      <c r="K44" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>579</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1">
@@ -10187,7 +10397,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -10219,37 +10429,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1">
@@ -10257,37 +10467,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1">
@@ -10295,37 +10505,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1">
@@ -10333,34 +10543,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1">
@@ -10368,13 +10578,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
@@ -10383,19 +10593,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1">
@@ -10403,37 +10613,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1">
@@ -10441,34 +10651,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1">
@@ -10479,10 +10689,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>35</v>
@@ -10491,19 +10701,19 @@
         <v>36</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
@@ -10511,34 +10721,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1">
@@ -10552,28 +10762,28 @@
         <v>42</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1">
@@ -10581,37 +10791,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1">
@@ -10619,34 +10829,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1">
@@ -10654,34 +10864,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1">
@@ -10695,7 +10905,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>16</v>
@@ -10710,13 +10920,13 @@
         <v>19</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1">
@@ -10724,34 +10934,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1">
@@ -10759,25 +10969,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1">
@@ -10785,37 +10995,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1">
@@ -10823,37 +11033,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1">
@@ -10861,34 +11071,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
@@ -10896,37 +11106,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
@@ -10934,37 +11144,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
@@ -10972,34 +11182,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
@@ -11007,37 +11217,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
@@ -11045,37 +11255,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
@@ -11083,34 +11293,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
@@ -11118,34 +11328,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1">
@@ -11153,37 +11363,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1">
@@ -11191,34 +11401,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1">
@@ -11226,37 +11436,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1">
@@ -11264,37 +11474,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1">
@@ -11302,37 +11512,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="19.5" customHeight="1">
@@ -11340,37 +11550,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="19.5" customHeight="1">
@@ -11378,37 +11588,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="19.5" customHeight="1">
@@ -11416,34 +11626,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1">
@@ -11451,34 +11661,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1">
@@ -11486,34 +11696,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1">
@@ -11521,34 +11731,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="19.5" customHeight="1">
@@ -11556,37 +11766,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1">
@@ -11594,25 +11804,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1">
@@ -11620,37 +11830,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19.5" customHeight="1"/>

--- a/xlsx/sheet.xlsx
+++ b/xlsx/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kono.arisa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0894393-BBE5-944D-B7D9-459C692E18F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2875BD4-3E3C-A94B-BA86-50ACB627E627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32560" yWindow="540" windowWidth="30240" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2026'!$A$1:$N$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2026'!$A$1:$N$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="854">
   <si>
     <t>id</t>
   </si>
@@ -3943,6 +3943,22 @@
   <si>
     <t>img91.png</t>
     <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>日立エナジージャパン株式会社</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/optZU3qtA/info.html?corpId=267793</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>img89.png</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ßß</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -4388,7 +4404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4530,57 +4546,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4599,31 +4564,124 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="27" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="27" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="28" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4843,13 +4901,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1014"/>
+  <dimension ref="A1:S1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A54:A59"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4866,14 +4924,14 @@
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" customWidth="1"/>
+    <col min="13" max="13" width="92" customWidth="1"/>
     <col min="14" max="14" width="22.83203125" customWidth="1"/>
     <col min="15" max="15" width="17.1640625" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" customWidth="1"/>
     <col min="17" max="25" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1">
+    <row r="1" spans="1:19" ht="19.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4923,7 +4981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.5" customHeight="1">
+    <row r="2" spans="1:19" ht="19.5" customHeight="1">
       <c r="A2" s="29">
         <v>0</v>
       </c>
@@ -4963,17 +5021,20 @@
       <c r="M2" s="60" t="s">
         <v>780</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="36" t="b">
+      <c r="O2" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="36" t="b">
+      <c r="P2" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -5013,17 +5074,20 @@
       <c r="M3" s="60" t="s">
         <v>781</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="36" t="b">
+      <c r="O3" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="36" t="b">
+      <c r="P3" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+    </row>
+    <row r="4" spans="1:19" ht="19.5" customHeight="1">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -5063,17 +5127,20 @@
       <c r="M4" s="60" t="s">
         <v>782</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="36" t="b">
+      <c r="O4" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="36" t="b">
+      <c r="P4" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" customHeight="1">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -5113,17 +5180,20 @@
       <c r="M5" s="60" t="s">
         <v>783</v>
       </c>
-      <c r="N5" s="68" t="s">
+      <c r="N5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="36" t="b">
+      <c r="O5" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="36" t="b">
+      <c r="P5" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+    </row>
+    <row r="6" spans="1:19" ht="19.5" customHeight="1">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -5163,17 +5233,20 @@
       <c r="M6" s="60" t="s">
         <v>784</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="36" t="b">
+      <c r="O6" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P6" s="36" t="b">
+      <c r="P6" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+    </row>
+    <row r="7" spans="1:19" ht="19.5" customHeight="1">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -5213,17 +5286,20 @@
       <c r="M7" s="60" t="s">
         <v>785</v>
       </c>
-      <c r="N7" s="68" t="s">
+      <c r="N7" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="36" t="b">
+      <c r="O7" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="36" t="b">
+      <c r="P7" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" customHeight="1">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -5263,17 +5339,20 @@
       <c r="M8" s="60" t="s">
         <v>786</v>
       </c>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="36" t="b">
+      <c r="O8" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="36" t="b">
+      <c r="P8" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+    </row>
+    <row r="9" spans="1:19" ht="19.5" customHeight="1">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -5313,17 +5392,20 @@
       <c r="M9" s="60" t="s">
         <v>787</v>
       </c>
-      <c r="N9" s="68" t="s">
+      <c r="N9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="36" t="b">
+      <c r="O9" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="36" t="b">
+      <c r="P9" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+    </row>
+    <row r="10" spans="1:19" ht="19.5" customHeight="1">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -5363,17 +5445,20 @@
       <c r="M10" s="60" t="s">
         <v>788</v>
       </c>
-      <c r="N10" s="68" t="s">
+      <c r="N10" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="36" t="b">
+      <c r="O10" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="36" t="b">
+      <c r="P10" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.5" customHeight="1">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -5413,17 +5498,20 @@
       <c r="M11" s="60" t="s">
         <v>789</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="36" t="b">
+      <c r="O11" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="36" t="b">
+      <c r="P11" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+    </row>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1">
       <c r="A12" s="29">
         <v>10</v>
       </c>
@@ -5463,17 +5551,20 @@
       <c r="M12" s="60" t="s">
         <v>790</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="36" t="b">
+      <c r="O12" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="36" t="b">
+      <c r="P12" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+    </row>
+    <row r="13" spans="1:19" ht="19.5" customHeight="1">
       <c r="A13" s="29">
         <v>11</v>
       </c>
@@ -5513,17 +5604,20 @@
       <c r="M13" s="60" t="s">
         <v>791</v>
       </c>
-      <c r="N13" s="68" t="s">
+      <c r="N13" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="36" t="b">
+      <c r="O13" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="36" t="b">
+      <c r="P13" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+    </row>
+    <row r="14" spans="1:19" ht="19.5" customHeight="1">
       <c r="A14" s="29">
         <v>12</v>
       </c>
@@ -5563,17 +5657,20 @@
       <c r="M14" s="60" t="s">
         <v>792</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="36" t="b">
+      <c r="O14" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P14" s="36" t="b">
+      <c r="P14" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+    </row>
+    <row r="15" spans="1:19" ht="19.5" customHeight="1">
       <c r="A15" s="29">
         <v>13</v>
       </c>
@@ -5613,17 +5710,20 @@
       <c r="M15" s="60" t="s">
         <v>793</v>
       </c>
-      <c r="N15" s="68" t="s">
+      <c r="N15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="36" t="b">
+      <c r="O15" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P15" s="36" t="b">
+      <c r="P15" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+    </row>
+    <row r="16" spans="1:19" ht="19.5" customHeight="1">
       <c r="A16" s="29">
         <v>14</v>
       </c>
@@ -5663,1971 +5763,2025 @@
       <c r="M16" s="60" t="s">
         <v>794</v>
       </c>
-      <c r="N16" s="68" t="s">
+      <c r="N16" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="36" t="b">
+      <c r="O16" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P16" s="36" t="b">
+      <c r="P16" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="19.5" customHeight="1">
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+    </row>
+    <row r="17" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="29">
         <v>15</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="59" t="s">
         <v>154</v>
       </c>
       <c r="M17" s="60" t="s">
         <v>795</v>
       </c>
-      <c r="N17" s="68" t="s">
+      <c r="N17" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="36" t="b">
+      <c r="O17" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P17" s="36" t="b">
+      <c r="P17" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="29">
         <v>16</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="64" t="s">
         <v>818</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="I18" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="L18" s="65" t="s">
         <v>839</v>
       </c>
-      <c r="M18" s="77" t="s">
+      <c r="M18" s="66" t="s">
         <v>834</v>
       </c>
-      <c r="N18" s="68" t="s">
+      <c r="N18" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="66" t="b">
+      <c r="O18" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="66" t="b">
+      <c r="P18" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="29">
         <v>17</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="67" t="s">
         <v>819</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L19" s="78" t="s">
+      <c r="L19" s="65" t="s">
         <v>840</v>
       </c>
       <c r="M19" s="60" t="s">
         <v>835</v>
       </c>
-      <c r="N19" s="68" t="s">
+      <c r="N19" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="66" t="b">
+      <c r="O19" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="66" t="b">
+      <c r="P19" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="29">
         <v>18</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="67" t="s">
         <v>820</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L20" s="78" t="s">
+      <c r="L20" s="65" t="s">
         <v>841</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="68" t="s">
         <v>816</v>
       </c>
-      <c r="N20" s="68" t="s">
+      <c r="N20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="66" t="b">
+      <c r="O20" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="66" t="b">
+      <c r="P20" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="21" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="29">
         <v>19</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>821</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L21" s="78" t="s">
+      <c r="L21" s="65" t="s">
         <v>842</v>
       </c>
-      <c r="M21" s="61" t="s">
+      <c r="M21" s="70" t="s">
         <v>833</v>
       </c>
-      <c r="N21" s="68" t="s">
+      <c r="N21" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="66" t="b">
+      <c r="O21" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="66" t="b">
+      <c r="P21" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="19.5" customHeight="1">
+    <row r="22" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="29">
         <v>20</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="59" t="s">
         <v>163</v>
       </c>
       <c r="M22" s="60" t="s">
         <v>796</v>
       </c>
-      <c r="N22" s="68" t="s">
+      <c r="N22" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="36" t="b">
+      <c r="O22" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="36" t="b">
+      <c r="P22" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="19.5" customHeight="1">
+    <row r="23" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="29">
         <v>21</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="59" t="s">
         <v>172</v>
       </c>
       <c r="M23" s="60" t="s">
         <v>797</v>
       </c>
-      <c r="N23" s="68" t="s">
+      <c r="N23" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="36" t="b">
+      <c r="O23" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P23" s="36" t="b">
+      <c r="P23" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19.5" customHeight="1">
+    <row r="24" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="29">
         <v>22</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="59" t="s">
         <v>181</v>
       </c>
       <c r="M24" s="60" t="s">
         <v>798</v>
       </c>
-      <c r="N24" s="68" t="s">
+      <c r="N24" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="36" t="b">
+      <c r="O24" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P24" s="36" t="b">
+      <c r="P24" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19.5" customHeight="1">
+    <row r="25" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A25" s="29">
         <v>23</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="59" t="s">
         <v>191</v>
       </c>
       <c r="M25" s="60" t="s">
         <v>799</v>
       </c>
-      <c r="N25" s="68" t="s">
+      <c r="N25" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="36" t="b">
+      <c r="O25" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P25" s="36" t="b">
+      <c r="P25" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19.5" customHeight="1">
+    <row r="26" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A26" s="29">
         <v>24</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="M26" s="61" t="s">
+      <c r="M26" s="70" t="s">
         <v>800</v>
       </c>
-      <c r="N26" s="68" t="s">
+      <c r="N26" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="36" t="b">
+      <c r="O26" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P26" s="36" t="b">
+      <c r="P26" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19.5" customHeight="1">
+    <row r="27" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="29">
         <v>25</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="J27" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="M27" s="62" t="s">
+      <c r="M27" s="75" t="s">
         <v>801</v>
       </c>
-      <c r="N27" s="68" t="s">
+      <c r="N27" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="36" t="b">
+      <c r="O27" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P27" s="36" t="b">
+      <c r="P27" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="19.5" customHeight="1">
+    <row r="28" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="29">
         <v>26</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="59" t="s">
         <v>218</v>
       </c>
       <c r="M28" s="60" t="s">
         <v>802</v>
       </c>
-      <c r="N28" s="68" t="s">
+      <c r="N28" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="36" t="b">
+      <c r="O28" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P28" s="36" t="b">
+      <c r="P28" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="19.5" customHeight="1">
+    <row r="29" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="29">
         <v>27</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="47" t="s">
+      <c r="J29" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="59" t="s">
         <v>226</v>
       </c>
       <c r="M29" s="60" t="s">
         <v>803</v>
       </c>
-      <c r="N29" s="68" t="s">
+      <c r="N29" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="36" t="b">
+      <c r="O29" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P29" s="36" t="b">
+      <c r="P29" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="19.5" customHeight="1">
+    <row r="30" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A30" s="29">
         <v>28</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="K30" s="49" t="s">
+      <c r="K30" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="59" t="s">
         <v>234</v>
       </c>
       <c r="M30" s="60" t="s">
         <v>804</v>
       </c>
-      <c r="N30" s="68" t="s">
+      <c r="N30" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="36" t="b">
+      <c r="O30" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P30" s="36" t="b">
+      <c r="P30" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="19.5" customHeight="1">
+    <row r="31" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="29">
         <v>29</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="J31" s="47" t="s">
+      <c r="J31" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="59" t="s">
         <v>242</v>
       </c>
       <c r="M31" s="60" t="s">
         <v>805</v>
       </c>
-      <c r="N31" s="68" t="s">
+      <c r="N31" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="36" t="b">
+      <c r="O31" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P31" s="36" t="b">
+      <c r="P31" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="19.5" customHeight="1">
+    <row r="32" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A32" s="29">
         <v>30</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="47" t="s">
+      <c r="J32" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="41" t="s">
+      <c r="L32" s="59" t="s">
         <v>250</v>
       </c>
       <c r="M32" s="60" t="s">
         <v>806</v>
       </c>
-      <c r="N32" s="68" t="s">
+      <c r="N32" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="36" t="b">
+      <c r="O32" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P32" s="36" t="b">
+      <c r="P32" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="19.5" customHeight="1">
+    <row r="33" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A33" s="29">
         <v>31</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="L33" s="41" t="s">
+      <c r="L33" s="59" t="s">
         <v>260</v>
       </c>
       <c r="M33" s="60" t="s">
         <v>807</v>
       </c>
-      <c r="N33" s="68" t="s">
+      <c r="N33" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="36" t="b">
+      <c r="O33" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P33" s="36" t="b">
+      <c r="P33" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="19.5" customHeight="1">
+    <row r="34" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A34" s="29">
         <v>32</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="K34" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="59" t="s">
         <v>270</v>
       </c>
       <c r="M34" s="60" t="s">
         <v>808</v>
       </c>
-      <c r="N34" s="68" t="s">
+      <c r="N34" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="36" t="b">
+      <c r="O34" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P34" s="36" t="b">
+      <c r="P34" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="19.5" customHeight="1">
+    <row r="35" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A35" s="29">
         <v>33</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="J35" s="47" t="s">
+      <c r="J35" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="41" t="s">
+      <c r="L35" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="M35" s="61" t="s">
+      <c r="M35" s="70" t="s">
         <v>809</v>
       </c>
-      <c r="N35" s="68" t="s">
+      <c r="N35" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="36" t="b">
+      <c r="O35" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P35" s="36" t="b">
+      <c r="P35" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="19.5" customHeight="1">
+    <row r="36" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="29">
         <v>34</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="J36" s="47" t="s">
+      <c r="J36" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="K36" s="32" t="s">
+      <c r="K36" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="L36" s="41" t="s">
+      <c r="L36" s="59" t="s">
         <v>288</v>
       </c>
       <c r="M36" s="60" t="s">
         <v>810</v>
       </c>
-      <c r="N36" s="68" t="s">
+      <c r="N36" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O36" s="36" t="b">
+      <c r="O36" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P36" s="36" t="b">
+      <c r="P36" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="37" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A37" s="29">
         <v>35</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="78" t="s">
         <v>824</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H37" s="65" t="s">
+      <c r="H37" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I37" s="64" t="s">
+      <c r="I37" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J37" s="64" t="s">
+      <c r="J37" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K37" s="64" t="s">
+      <c r="K37" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L37" s="78" t="s">
+      <c r="L37" s="65" t="s">
         <v>843</v>
       </c>
       <c r="M37" s="60" t="s">
         <v>829</v>
       </c>
-      <c r="N37" s="68" t="s">
+      <c r="N37" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O37" s="66" t="b">
+      <c r="O37" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="66" t="b">
+      <c r="P37" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="38" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A38" s="29">
         <v>36</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="78" t="s">
         <v>825</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H38" s="65" t="s">
+      <c r="H38" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I38" s="64" t="s">
+      <c r="I38" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="J38" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K38" s="64" t="s">
+      <c r="K38" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L38" s="78" t="s">
+      <c r="L38" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M38" s="75" t="s">
+      <c r="M38" s="68" t="s">
         <v>816</v>
       </c>
-      <c r="N38" s="68" t="s">
+      <c r="N38" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O38" s="66" t="b">
+      <c r="O38" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P38" s="66" t="b">
+      <c r="P38" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="39" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A39" s="29">
         <v>37</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="78" t="s">
         <v>826</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G39" s="64" t="s">
+      <c r="G39" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H39" s="65" t="s">
+      <c r="H39" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="64" t="s">
+      <c r="I39" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K39" s="64" t="s">
+      <c r="K39" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L39" s="78" t="s">
+      <c r="L39" s="65" t="s">
         <v>845</v>
       </c>
       <c r="M39" s="60" t="s">
         <v>830</v>
       </c>
-      <c r="N39" s="68" t="s">
+      <c r="N39" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="66" t="b">
+      <c r="O39" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P39" s="66" t="b">
+      <c r="P39" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="40" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="29">
         <v>38</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="78" t="s">
         <v>827</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H40" s="65" t="s">
+      <c r="H40" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I40" s="64" t="s">
+      <c r="I40" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J40" s="64" t="s">
+      <c r="J40" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K40" s="64" t="s">
+      <c r="K40" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L40" s="78" t="s">
+      <c r="L40" s="65" t="s">
         <v>846</v>
       </c>
       <c r="M40" s="60" t="s">
         <v>831</v>
       </c>
-      <c r="N40" s="68" t="s">
+      <c r="N40" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="66" t="b">
+      <c r="O40" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P40" s="66" t="b">
+      <c r="P40" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="41" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A41" s="29">
         <v>39</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="79" t="s">
         <v>828</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="F41" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G41" s="64" t="s">
+      <c r="G41" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H41" s="65" t="s">
+      <c r="H41" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="64" t="s">
+      <c r="I41" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K41" s="64" t="s">
+      <c r="K41" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L41" s="78" t="s">
+      <c r="L41" s="65" t="s">
         <v>847</v>
       </c>
-      <c r="M41" s="76" t="s">
+      <c r="M41" s="80" t="s">
         <v>832</v>
       </c>
-      <c r="N41" s="68" t="s">
+      <c r="N41" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O41" s="66" t="b">
+      <c r="O41" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P41" s="66" t="b">
+      <c r="P41" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="42" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A42" s="29">
         <v>40</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="81" t="s">
         <v>821</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H42" s="65" t="s">
+      <c r="H42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="64" t="s">
+      <c r="I42" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J42" s="64" t="s">
+      <c r="J42" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K42" s="64" t="s">
+      <c r="K42" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L42" s="78" t="s">
+      <c r="L42" s="65" t="s">
         <v>842</v>
       </c>
-      <c r="M42" s="61" t="s">
+      <c r="M42" s="70" t="s">
         <v>833</v>
       </c>
-      <c r="N42" s="68" t="s">
+      <c r="N42" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O42" s="66" t="b">
+      <c r="O42" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P42" s="66" t="b">
+      <c r="P42" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="19.5" customHeight="1">
+    <row r="43" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A43" s="29">
         <v>41</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="I43" s="33" t="s">
+      <c r="I43" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="J43" s="47" t="s">
+      <c r="J43" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="K43" s="50" t="s">
+      <c r="K43" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="41" t="s">
+      <c r="L43" s="59" t="s">
         <v>298</v>
       </c>
       <c r="M43" s="60" t="s">
         <v>811</v>
       </c>
-      <c r="N43" s="68" t="s">
+      <c r="N43" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="36" t="b">
+      <c r="O43" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P43" s="36" t="b">
+      <c r="P43" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="44" spans="1:16" s="52" customFormat="1" ht="19.5" customHeight="1">
       <c r="A44" s="29">
         <v>42</v>
       </c>
-      <c r="B44" s="74" t="s">
-        <v>821</v>
-      </c>
-      <c r="C44" s="64" t="s">
+      <c r="B44" s="91" t="s">
+        <v>850</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="G44" s="64" t="s">
+      <c r="G44" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="H44" s="65" t="s">
+      <c r="H44" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="I44" s="64" t="s">
+      <c r="I44" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="K44" s="64" t="s">
+      <c r="K44" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="L44" s="67" t="s">
-        <v>838</v>
-      </c>
-      <c r="M44" s="61" t="s">
-        <v>833</v>
-      </c>
-      <c r="N44" s="68" t="s">
+      <c r="L44" s="50" t="s">
+        <v>852</v>
+      </c>
+      <c r="M44" s="92" t="s">
+        <v>851</v>
+      </c>
+      <c r="N44" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="66" t="b">
+      <c r="O44" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="P44" s="66" t="b">
+      <c r="P44" s="49" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="19.5" customHeight="1">
+    <row r="45" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A45" s="29">
         <v>43</v>
       </c>
-      <c r="B45" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H45" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="L45" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="M45" s="60" t="s">
-        <v>812</v>
-      </c>
-      <c r="N45" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="O45" s="36" t="b">
+      <c r="B45" s="81" t="s">
+        <v>821</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="H45" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="J45" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="K45" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="L45" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="M45" s="70" t="s">
+        <v>833</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="19.5" customHeight="1">
+    </row>
+    <row r="46" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A46" s="29">
         <v>44</v>
       </c>
-      <c r="B46" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="33" t="s">
+      <c r="B46" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="F46" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="H46" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="I46" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="J46" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="M46" s="61" t="s">
-        <v>813</v>
-      </c>
-      <c r="N46" s="68" t="s">
+      <c r="I46" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="M46" s="60" t="s">
+        <v>812</v>
+      </c>
+      <c r="N46" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="O46" s="36" t="b">
+      <c r="O46" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P46" s="36" t="b">
+      <c r="P46" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="19.5" customHeight="1">
+    <row r="47" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A47" s="29">
         <v>45</v>
       </c>
-      <c r="B47" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="33" t="s">
+      <c r="B47" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="I47" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="J47" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="K47" s="36" t="s">
+      <c r="I47" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="J47" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="M47" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="N47" s="68" t="s">
+      <c r="L47" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="M47" s="70" t="s">
+        <v>813</v>
+      </c>
+      <c r="N47" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="O47" s="36" t="b">
+      <c r="O47" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P47" s="36" t="b">
+      <c r="P47" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="19.5" customHeight="1">
+    <row r="48" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A48" s="29">
         <v>46</v>
       </c>
-      <c r="B48" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H48" s="33" t="s">
+      <c r="B48" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="I48" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="J48" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="K48" s="36" t="s">
+      <c r="I48" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="K48" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="41" t="s">
-        <v>330</v>
+      <c r="L48" s="59" t="s">
+        <v>322</v>
       </c>
       <c r="M48" s="60" t="s">
-        <v>815</v>
-      </c>
-      <c r="N48" s="68" t="s">
+        <v>814</v>
+      </c>
+      <c r="N48" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="O48" s="36" t="b">
+      <c r="O48" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P48" s="36" t="b">
+      <c r="P48" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="49" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A49" s="29">
         <v>47</v>
       </c>
-      <c r="B49" s="72" t="s">
-        <v>836</v>
-      </c>
-      <c r="C49" s="64" t="s">
-        <v>822</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>822</v>
-      </c>
-      <c r="E49" s="64" t="s">
-        <v>822</v>
-      </c>
-      <c r="F49" s="64" t="s">
-        <v>822</v>
-      </c>
-      <c r="G49" s="64" t="s">
-        <v>822</v>
-      </c>
-      <c r="H49" s="65" t="s">
+      <c r="B49" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="G49" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="I49" s="64" t="s">
-        <v>822</v>
-      </c>
-      <c r="J49" s="64" t="s">
-        <v>822</v>
-      </c>
-      <c r="K49" s="64" t="s">
-        <v>822</v>
-      </c>
-      <c r="L49" s="78" t="s">
-        <v>848</v>
-      </c>
-      <c r="M49" s="75" t="s">
-        <v>816</v>
-      </c>
-      <c r="N49" s="68" t="s">
+      <c r="I49" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="J49" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="K49" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="M49" s="60" t="s">
+        <v>815</v>
+      </c>
+      <c r="N49" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="O49" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="P49" s="66" t="b">
+      <c r="O49" s="62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="P49" s="62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A50" s="29">
         <v>48</v>
       </c>
-      <c r="B50" s="72" t="s">
-        <v>837</v>
-      </c>
-      <c r="C50" s="64" t="s">
+      <c r="B50" s="78" t="s">
+        <v>836</v>
+      </c>
+      <c r="C50" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="F50" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G50" s="64" t="s">
+      <c r="G50" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H50" s="65" t="s">
+      <c r="H50" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="64" t="s">
+      <c r="I50" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="J50" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K50" s="64" t="s">
+      <c r="K50" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L50" s="78" t="s">
-        <v>849</v>
-      </c>
-      <c r="M50" s="75" t="s">
+      <c r="L50" s="65" t="s">
+        <v>848</v>
+      </c>
+      <c r="M50" s="68" t="s">
         <v>816</v>
       </c>
-      <c r="N50" s="68" t="s">
+      <c r="N50" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="66" t="b">
+      <c r="O50" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P50" s="66" t="b">
+      <c r="P50" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="51" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A51" s="29">
         <v>49</v>
       </c>
-      <c r="B51" s="74" t="s">
-        <v>821</v>
-      </c>
-      <c r="C51" s="64" t="s">
+      <c r="B51" s="78" t="s">
+        <v>837</v>
+      </c>
+      <c r="C51" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F51" s="64" t="s">
+      <c r="F51" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G51" s="64" t="s">
+      <c r="G51" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H51" s="65" t="s">
+      <c r="H51" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="I51" s="64" t="s">
+      <c r="I51" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J51" s="64" t="s">
+      <c r="J51" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K51" s="64" t="s">
+      <c r="K51" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L51" s="67" t="s">
-        <v>838</v>
-      </c>
-      <c r="M51" s="61" t="s">
-        <v>833</v>
-      </c>
-      <c r="N51" s="68" t="s">
+      <c r="L51" s="65" t="s">
+        <v>849</v>
+      </c>
+      <c r="M51" s="68" t="s">
+        <v>816</v>
+      </c>
+      <c r="N51" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="O51" s="66" t="b">
+      <c r="O51" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P51" s="66" t="b">
+      <c r="P51" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="19.5" customHeight="1">
+    <row r="52" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="29">
         <v>50</v>
       </c>
-      <c r="B52" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="G52" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="H52" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="I52" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="J52" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="K52" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="M52" s="61" t="s">
-        <v>816</v>
-      </c>
-      <c r="N52" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="O52" s="36" t="b">
+      <c r="B52" s="81" t="s">
+        <v>821</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="D52" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="H52" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="K52" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="L52" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="M52" s="70" t="s">
+        <v>833</v>
+      </c>
+      <c r="N52" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="P52" s="36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="69" customFormat="1" ht="19.5" customHeight="1">
+    </row>
+    <row r="53" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A53" s="29">
         <v>51</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="E53" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="H53" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="M53" s="70" t="s">
+        <v>816</v>
+      </c>
+      <c r="N53" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="O53" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" s="62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A54" s="29">
+        <v>52</v>
+      </c>
+      <c r="B54" s="81" t="s">
         <v>821</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C54" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D54" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E54" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F53" s="64" t="s">
+      <c r="F54" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="G53" s="64" t="s">
+      <c r="G54" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="H53" s="65" t="s">
+      <c r="H54" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="I53" s="64" t="s">
+      <c r="I54" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="J53" s="64" t="s">
+      <c r="J54" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="K53" s="64" t="s">
+      <c r="K54" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="L53" s="67" t="s">
+      <c r="L54" s="59" t="s">
         <v>838</v>
       </c>
-      <c r="M53" s="61" t="s">
+      <c r="M54" s="70" t="s">
         <v>833</v>
       </c>
-      <c r="N53" s="68" t="s">
+      <c r="N54" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="O53" s="66" t="b">
+      <c r="O54" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="P53" s="66" t="b">
+      <c r="P54" s="62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="59" t="s">
+    <row r="55" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A55" s="83"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-    </row>
-    <row r="55" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="59" t="s">
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+    </row>
+    <row r="56" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A56" s="83"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-    </row>
-    <row r="56" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="59" t="s">
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+    </row>
+    <row r="57" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A57" s="83"/>
+      <c r="B57" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="C57" s="53"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-    </row>
-    <row r="57" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="59" t="s">
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+    </row>
+    <row r="58" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A58" s="83"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-    </row>
-    <row r="58" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="59" t="s">
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+    </row>
+    <row r="59" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A59" s="83"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-    </row>
-    <row r="59" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" ht="19.5" customHeight="1"/>
-    <row r="61" spans="1:16" ht="19.5" customHeight="1"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+    </row>
+    <row r="60" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A60" s="83"/>
+    </row>
+    <row r="61" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1"/>
     <row r="62" spans="1:16" ht="19.5" customHeight="1"/>
     <row r="63" spans="1:16" ht="19.5" customHeight="1"/>
     <row r="64" spans="1:16" ht="19.5" customHeight="1"/>
@@ -8581,11 +8735,12 @@
     <row r="1012" ht="19.5" customHeight="1"/>
     <row r="1013" ht="19.5" customHeight="1"/>
     <row r="1014" ht="19.5" customHeight="1"/>
+    <row r="1015" ht="19.5" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:N58" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N53" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N54" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"digital_systems_services,corporate,connective_industries,energy,mobility"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8702,25 +8857,25 @@
     <hyperlink ref="D43" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="E43" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="J43" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D45" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E45" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="J45" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="K45" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D46" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E46" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="J46" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D47" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E47" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="J47" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D48" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E48" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J48" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D52" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E52" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="J52" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D46" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E46" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J46" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="K46" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D47" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E47" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J47" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D48" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E48" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J48" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D49" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E49" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J49" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D53" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E53" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J53" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
     <hyperlink ref="M31" r:id="rId129" xr:uid="{3DCFF543-2C8E-D344-A258-2B90B2029922}"/>
     <hyperlink ref="M30" r:id="rId130" xr:uid="{E2BB7B96-2C60-1F41-B370-F7A86B532151}"/>
-    <hyperlink ref="M48" r:id="rId131" xr:uid="{168441D3-3570-4141-B0CB-54B09C3721C4}"/>
+    <hyperlink ref="M49" r:id="rId131" xr:uid="{168441D3-3570-4141-B0CB-54B09C3721C4}"/>
     <hyperlink ref="M13" r:id="rId132" xr:uid="{D6908705-D109-5A44-B7C6-420975DA42C0}"/>
     <hyperlink ref="M23" r:id="rId133" xr:uid="{2CF81E44-3DE3-364D-9E91-7C4AB512BAF1}"/>
     <hyperlink ref="M24" r:id="rId134" xr:uid="{4898B7C1-87EA-424E-9AA1-320F2E1462D3}"/>
@@ -8731,14 +8886,14 @@
     <hyperlink ref="M10" r:id="rId139" xr:uid="{F1B5D1B2-165F-D84B-8B15-5859EE845D26}"/>
     <hyperlink ref="M22" r:id="rId140" xr:uid="{D677CCE2-F2AC-B348-96EB-2DAB5ED9B9A0}"/>
     <hyperlink ref="M33" r:id="rId141" xr:uid="{617B785A-FF70-4749-9CEB-D7DE387C8954}"/>
-    <hyperlink ref="M45" r:id="rId142" xr:uid="{66BDE6AC-29C2-4B41-A9A3-87F900EFA1C2}"/>
+    <hyperlink ref="M46" r:id="rId142" xr:uid="{66BDE6AC-29C2-4B41-A9A3-87F900EFA1C2}"/>
     <hyperlink ref="M2" r:id="rId143" xr:uid="{A3F47F2C-68B4-3D48-A60B-BBFD605E8CC0}"/>
     <hyperlink ref="M43" r:id="rId144" xr:uid="{6C9A1314-E3DA-934A-863A-061B04E8D6EB}"/>
     <hyperlink ref="M36" r:id="rId145" xr:uid="{22478BA6-1FC2-894B-BEA2-D9C6C78CE2AB}"/>
     <hyperlink ref="M3" r:id="rId146" xr:uid="{19170B0A-5E2F-E241-896F-C9C1F246CF98}"/>
-    <hyperlink ref="M46" r:id="rId147" xr:uid="{C03EB75E-C923-9747-A2D7-4841BFC1F3A0}"/>
+    <hyperlink ref="M47" r:id="rId147" xr:uid="{C03EB75E-C923-9747-A2D7-4841BFC1F3A0}"/>
     <hyperlink ref="M29" r:id="rId148" xr:uid="{42AFD22E-EDB9-8D44-87E3-5D49A6B38AF0}"/>
-    <hyperlink ref="M47" r:id="rId149" xr:uid="{32AA169A-2B96-9C49-B68D-3D7B7E7998BC}"/>
+    <hyperlink ref="M48" r:id="rId149" xr:uid="{32AA169A-2B96-9C49-B68D-3D7B7E7998BC}"/>
     <hyperlink ref="M25" r:id="rId150" xr:uid="{F11F9C68-9C0A-7249-B3E1-AE9AE0AC110A}"/>
     <hyperlink ref="M15" r:id="rId151" xr:uid="{459B107E-B345-0447-8EEF-CB497CFA2C48}"/>
     <hyperlink ref="M26" r:id="rId152" xr:uid="{C1026C81-6C8E-8D46-BA79-54E87759CAE9}"/>
@@ -8752,7 +8907,7 @@
     <hyperlink ref="M16" r:id="rId160" xr:uid="{33317923-0D03-7740-A3D4-11670FD28712}"/>
     <hyperlink ref="M4" r:id="rId161" xr:uid="{79271F6C-3A26-4348-8320-47D07092D174}"/>
     <hyperlink ref="M17" r:id="rId162" xr:uid="{E8FC7996-ADB4-2549-BB37-637F7A74270C}"/>
-    <hyperlink ref="M52" r:id="rId163" xr:uid="{A8386BEE-3BBC-3C42-A6E4-5CDC314F3C9C}"/>
+    <hyperlink ref="M53" r:id="rId163" xr:uid="{A8386BEE-3BBC-3C42-A6E4-5CDC314F3C9C}"/>
     <hyperlink ref="M11" r:id="rId164" xr:uid="{4F6FDCA3-BDCC-F743-ABA2-C17C300D34A2}"/>
     <hyperlink ref="M12" r:id="rId165" xr:uid="{060A9CB1-3D66-5041-8EA2-CADDC9499A17}"/>
     <hyperlink ref="M19" r:id="rId166" xr:uid="{157A48EC-3937-5240-8A45-3211DF2E3BCF}"/>
@@ -8765,11 +8920,12 @@
     <hyperlink ref="M41" r:id="rId173" xr:uid="{3193DFDC-97BE-4D4C-A3AA-8BF3FE31AFE8}"/>
     <hyperlink ref="M40" r:id="rId174" xr:uid="{2D6159AD-7BEE-2A48-934C-5500A45CA02C}"/>
     <hyperlink ref="M42" r:id="rId175" xr:uid="{33DD301A-FEC8-5042-A3DD-3E751569B912}"/>
-    <hyperlink ref="M44" r:id="rId176" xr:uid="{5C523DFD-33EC-3C48-9742-5D705F7590E3}"/>
-    <hyperlink ref="M49" r:id="rId177" xr:uid="{DEBDD8F7-94C6-6141-83CF-EE3C77682B07}"/>
-    <hyperlink ref="M50" r:id="rId178" xr:uid="{BC84B4F4-C5E9-E648-9973-A8576AD0F085}"/>
-    <hyperlink ref="M51" r:id="rId179" xr:uid="{E20A3778-EB84-B645-936C-6DEC6E964B9A}"/>
-    <hyperlink ref="M53" r:id="rId180" xr:uid="{8B62AA38-CAEF-1F43-A01D-6AB5437C93D1}"/>
+    <hyperlink ref="M45" r:id="rId176" xr:uid="{5C523DFD-33EC-3C48-9742-5D705F7590E3}"/>
+    <hyperlink ref="M50" r:id="rId177" xr:uid="{DEBDD8F7-94C6-6141-83CF-EE3C77682B07}"/>
+    <hyperlink ref="M51" r:id="rId178" xr:uid="{BC84B4F4-C5E9-E648-9973-A8576AD0F085}"/>
+    <hyperlink ref="M52" r:id="rId179" xr:uid="{E20A3778-EB84-B645-936C-6DEC6E964B9A}"/>
+    <hyperlink ref="M54" r:id="rId180" xr:uid="{8B62AA38-CAEF-1F43-A01D-6AB5437C93D1}"/>
+    <hyperlink ref="M44" r:id="rId181" xr:uid="{FF680213-F83C-2D45-B7B4-F98882B4DD83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/xlsx/sheet.xlsx
+++ b/xlsx/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kono.arisa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2875BD4-3E3C-A94B-BA86-50ACB627E627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F889F3ED-59EC-0141-A1BF-AF451D60A8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32560" yWindow="540" windowWidth="30240" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3712,9 +3712,6 @@
     <t>https://job.mynavi.jp/27/pc/opt8it9fA/info.html?corpId=60422</t>
   </si>
   <si>
-    <t>https://job.mynavi.jp/27/pc/optlk9M-A/info.html?corpId=75271</t>
-  </si>
-  <si>
     <t>https://job.mynavi.jp/27/pc/optRHVq7A/info.html?corpId=230709</t>
   </si>
   <si>
@@ -3749,16 +3746,6 @@
   </si>
   <si>
     <t>https://job.mynavi.jp/27/pc/optS3YPBA/info.html?corpId=231127</t>
-  </si>
-  <si>
-    <t>https://job.mynavi.jp/27/pc/optwp66tA/info.html?corpId=91623</t>
-  </si>
-  <si>
-    <t>https://job.mynavi.jp/27/pc/optRM0jVA/info.html?corpId=53009</t>
-  </si>
-  <si>
-    <t>https://job.mynavi.jp/27/pc/optjMjJ0A/info.html?corpId=3427</t>
-    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>https://job.mynavi.jp/27/pc/optaST6vA/info.html?corpId=206285</t>
@@ -3775,9 +3762,6 @@
   </si>
   <si>
     <t>https://job.mynavi.jp/27/pc/opt3uoSyA/os.html?corpId=2238</t>
-  </si>
-  <si>
-    <t>https://job.mynavi.jp/27/pc/optdmMsVA/info.html?corpId=65653</t>
   </si>
   <si>
     <t>https://job.mynavi.jp/27/pc/optfEV-XA/info.html?corpId=113326</t>
@@ -3886,9 +3870,6 @@
     <t>https://job.mynavi.jp/27/pc/optmLzeYA/info.html?corpId=113333</t>
   </si>
   <si>
-    <t>https://job.mynavi.jp/27/pc/optZEfg2A/info.html?corpId=65821</t>
-  </si>
-  <si>
     <t>株式会社日立アカデミー</t>
     <phoneticPr fontId="21"/>
   </si>
@@ -3958,6 +3939,30 @@
   </si>
   <si>
     <t>ßß</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/optUCXmhA/is_os.html?corpId=75271</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/optNBzO6A/is_os.html?corpId=91623</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/optZoJC0A/is_os.html?corpId=53009</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/optZezQHA/os.html?corpId=3427</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/optkvvD3A/info.html?corpId=65653</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://job.mynavi.jp/27/pc/opt8LOyXA/is_os.html?corpId=65821</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -4404,7 +4409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4534,9 +4539,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="27" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4546,46 +4548,103 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="27" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="27" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="27" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4595,93 +4654,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="27" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="28" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4901,13 +4873,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1015"/>
+  <dimension ref="A1:P1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4931,7 +4903,7 @@
     <col min="17" max="25" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" customHeight="1">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4981,7 +4953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19.5" customHeight="1">
+    <row r="2" spans="1:16" ht="19.5" customHeight="1">
       <c r="A2" s="29">
         <v>0</v>
       </c>
@@ -5018,23 +4990,20 @@
       <c r="L2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="46" t="s">
         <v>780</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="62" t="b">
+      <c r="O2" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="62" t="b">
+      <c r="P2" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:16" ht="19.5" customHeight="1">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -5071,23 +5040,20 @@
       <c r="L3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="46" t="s">
         <v>781</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="62" t="b">
+      <c r="O3" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="62" t="b">
+      <c r="P3" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-    </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:16" ht="19.5" customHeight="1">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -5124,23 +5090,20 @@
       <c r="L4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="46" t="s">
         <v>782</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="62" t="b">
+      <c r="O4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="62" t="b">
+      <c r="P4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-    </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:16" ht="19.5" customHeight="1">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -5177,23 +5140,20 @@
       <c r="L5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="46" t="s">
         <v>783</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="62" t="b">
+      <c r="O5" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="62" t="b">
+      <c r="P5" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-    </row>
-    <row r="6" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:16" ht="19.5" customHeight="1">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -5230,23 +5190,20 @@
       <c r="L6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="46" t="s">
         <v>784</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="62" t="b">
+      <c r="O6" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P6" s="62" t="b">
+      <c r="P6" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-    </row>
-    <row r="7" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:16" ht="19.5" customHeight="1">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -5262,7 +5219,7 @@
       <c r="E7" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="72" t="s">
         <v>777</v>
       </c>
       <c r="G7" s="33" t="s">
@@ -5277,29 +5234,26 @@
       <c r="J7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="43" t="s">
         <v>73</v>
       </c>
       <c r="L7" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="60" t="s">
-        <v>785</v>
-      </c>
-      <c r="N7" s="61" t="s">
+      <c r="M7" s="71" t="s">
+        <v>848</v>
+      </c>
+      <c r="N7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="62" t="b">
+      <c r="O7" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="62" t="b">
+      <c r="P7" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:16" ht="19.5" customHeight="1">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -5336,27 +5290,24 @@
       <c r="L8" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="M8" s="60" t="s">
-        <v>786</v>
-      </c>
-      <c r="N8" s="61" t="s">
+      <c r="M8" s="46" t="s">
+        <v>785</v>
+      </c>
+      <c r="N8" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="62" t="b">
+      <c r="O8" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="62" t="b">
+      <c r="P8" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-    </row>
-    <row r="9" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:16" ht="19.5" customHeight="1">
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -5389,23 +5340,20 @@
       <c r="L9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="60" t="s">
-        <v>787</v>
-      </c>
-      <c r="N9" s="61" t="s">
+      <c r="M9" s="46" t="s">
+        <v>786</v>
+      </c>
+      <c r="N9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="62" t="b">
+      <c r="O9" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="62" t="b">
+      <c r="P9" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-    </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:16" ht="19.5" customHeight="1">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -5442,23 +5390,20 @@
       <c r="L10" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="60" t="s">
-        <v>788</v>
-      </c>
-      <c r="N10" s="61" t="s">
+      <c r="M10" s="46" t="s">
+        <v>787</v>
+      </c>
+      <c r="N10" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="62" t="b">
+      <c r="O10" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="62" t="b">
+      <c r="P10" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-    </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:16" ht="19.5" customHeight="1">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -5486,7 +5431,7 @@
       <c r="I11" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -5495,23 +5440,20 @@
       <c r="L11" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="60" t="s">
-        <v>789</v>
-      </c>
-      <c r="N11" s="61" t="s">
+      <c r="M11" s="46" t="s">
+        <v>788</v>
+      </c>
+      <c r="N11" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="62" t="b">
+      <c r="O11" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="62" t="b">
+      <c r="P11" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:16" ht="19.5" customHeight="1">
       <c r="A12" s="29">
         <v>10</v>
       </c>
@@ -5548,23 +5490,20 @@
       <c r="L12" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="60" t="s">
-        <v>790</v>
-      </c>
-      <c r="N12" s="61" t="s">
+      <c r="M12" s="46" t="s">
+        <v>789</v>
+      </c>
+      <c r="N12" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="62" t="b">
+      <c r="O12" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="62" t="b">
+      <c r="P12" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-    </row>
-    <row r="13" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:16" ht="19.5" customHeight="1">
       <c r="A13" s="29">
         <v>11</v>
       </c>
@@ -5601,23 +5540,20 @@
       <c r="L13" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="60" t="s">
-        <v>791</v>
-      </c>
-      <c r="N13" s="61" t="s">
+      <c r="M13" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="N13" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="62" t="b">
+      <c r="O13" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="62" t="b">
+      <c r="P13" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-    </row>
-    <row r="14" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:16" ht="19.5" customHeight="1">
       <c r="A14" s="29">
         <v>12</v>
       </c>
@@ -5654,23 +5590,20 @@
       <c r="L14" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="M14" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="N14" s="61" t="s">
+      <c r="M14" s="46" t="s">
+        <v>791</v>
+      </c>
+      <c r="N14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="62" t="b">
+      <c r="O14" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P14" s="62" t="b">
+      <c r="P14" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-    </row>
-    <row r="15" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="15" spans="1:16" ht="19.5" customHeight="1">
       <c r="A15" s="29">
         <v>13</v>
       </c>
@@ -5707,23 +5640,20 @@
       <c r="L15" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="M15" s="60" t="s">
-        <v>793</v>
-      </c>
-      <c r="N15" s="61" t="s">
+      <c r="M15" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="N15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="62" t="b">
+      <c r="O15" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P15" s="62" t="b">
+      <c r="P15" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-    </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:16" ht="19.5" customHeight="1">
       <c r="A16" s="29">
         <v>14</v>
       </c>
@@ -5760,2028 +5690,2025 @@
       <c r="L16" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="60" t="s">
-        <v>794</v>
-      </c>
-      <c r="N16" s="61" t="s">
+      <c r="M16" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="N16" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="62" t="b">
+      <c r="O16" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P16" s="62" t="b">
+      <c r="P16" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-    </row>
-    <row r="17" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:16" ht="19.5" customHeight="1">
       <c r="A17" s="29">
         <v>15</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="56" t="s">
-        <v>823</v>
-      </c>
-      <c r="I17" s="56" t="s">
+      <c r="H17" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="I17" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="M17" s="60" t="s">
-        <v>795</v>
-      </c>
-      <c r="N17" s="61" t="s">
+      <c r="M17" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="N17" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="62" t="b">
+      <c r="O17" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P17" s="62" t="b">
+      <c r="P17" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:16" ht="19.5" customHeight="1">
       <c r="A18" s="29">
         <v>16</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H18" s="33" t="s">
         <v>818</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>823</v>
-      </c>
-      <c r="I18" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K18" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L18" s="65" t="s">
-        <v>839</v>
-      </c>
-      <c r="M18" s="66" t="s">
-        <v>834</v>
-      </c>
-      <c r="N18" s="61" t="s">
+      <c r="I18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>833</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>829</v>
+      </c>
+      <c r="N18" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="62" t="b">
+      <c r="O18" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="62" t="b">
+      <c r="P18" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:16" ht="19.5" customHeight="1">
       <c r="A19" s="29">
         <v>17</v>
       </c>
-      <c r="B19" s="67" t="s">
-        <v>819</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>823</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J19" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L19" s="65" t="s">
-        <v>840</v>
-      </c>
-      <c r="M19" s="60" t="s">
-        <v>835</v>
-      </c>
-      <c r="N19" s="61" t="s">
+      <c r="B19" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>834</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>853</v>
+      </c>
+      <c r="N19" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="62" t="b">
+      <c r="O19" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="62" t="b">
+      <c r="P19" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:16" ht="19.5" customHeight="1">
       <c r="A20" s="29">
         <v>18</v>
       </c>
-      <c r="B20" s="67" t="s">
-        <v>820</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>823</v>
-      </c>
-      <c r="I20" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K20" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L20" s="65" t="s">
-        <v>841</v>
-      </c>
-      <c r="M20" s="68" t="s">
-        <v>816</v>
-      </c>
-      <c r="N20" s="61" t="s">
+      <c r="B20" s="51" t="s">
+        <v>815</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>835</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>811</v>
+      </c>
+      <c r="N20" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="62" t="b">
+      <c r="O20" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="62" t="b">
+      <c r="P20" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="21" spans="1:16" ht="19.5" customHeight="1">
       <c r="A21" s="29">
         <v>19</v>
       </c>
-      <c r="B21" s="69" t="s">
-        <v>821</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>823</v>
-      </c>
-      <c r="I21" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J21" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K21" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L21" s="65" t="s">
-        <v>842</v>
-      </c>
-      <c r="M21" s="70" t="s">
-        <v>833</v>
-      </c>
-      <c r="N21" s="61" t="s">
+      <c r="B21" s="53" t="s">
+        <v>816</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>836</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>828</v>
+      </c>
+      <c r="N21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="62" t="b">
+      <c r="O21" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="62" t="b">
+      <c r="P21" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="22" spans="1:16" ht="19.5" customHeight="1">
       <c r="A22" s="29">
         <v>20</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="M22" s="60" t="s">
-        <v>796</v>
-      </c>
-      <c r="N22" s="61" t="s">
+      <c r="M22" s="46" t="s">
+        <v>795</v>
+      </c>
+      <c r="N22" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="62" t="b">
+      <c r="O22" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="62" t="b">
+      <c r="P22" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="23" spans="1:16" ht="19.5" customHeight="1">
       <c r="A23" s="29">
         <v>21</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="M23" s="60" t="s">
-        <v>797</v>
-      </c>
-      <c r="N23" s="61" t="s">
+      <c r="M23" s="46" t="s">
+        <v>796</v>
+      </c>
+      <c r="N23" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="62" t="b">
+      <c r="O23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P23" s="62" t="b">
+      <c r="P23" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="24" spans="1:16" ht="19.5" customHeight="1">
       <c r="A24" s="29">
         <v>22</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="M24" s="60" t="s">
-        <v>798</v>
-      </c>
-      <c r="N24" s="61" t="s">
+      <c r="M24" s="71" t="s">
+        <v>849</v>
+      </c>
+      <c r="N24" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="62" t="b">
+      <c r="O24" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P24" s="62" t="b">
+      <c r="P24" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="25" spans="1:16" ht="19.5" customHeight="1">
       <c r="A25" s="29">
         <v>23</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="58" t="s">
+      <c r="K25" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="M25" s="60" t="s">
-        <v>799</v>
-      </c>
-      <c r="N25" s="61" t="s">
+      <c r="M25" s="71" t="s">
+        <v>850</v>
+      </c>
+      <c r="N25" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="62" t="b">
+      <c r="O25" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P25" s="62" t="b">
+      <c r="P25" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="26" spans="1:16" ht="19.5" customHeight="1">
       <c r="A26" s="29">
         <v>24</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="L26" s="74" t="s">
+      <c r="L26" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="M26" s="70" t="s">
-        <v>800</v>
-      </c>
-      <c r="N26" s="61" t="s">
+      <c r="M26" s="71" t="s">
+        <v>851</v>
+      </c>
+      <c r="N26" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="62" t="b">
+      <c r="O26" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P26" s="62" t="b">
+      <c r="P26" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="27" spans="1:16" ht="19.5" customHeight="1">
       <c r="A27" s="29">
         <v>25</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="71" t="s">
+      <c r="I27" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="74" t="s">
+      <c r="L27" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="M27" s="75" t="s">
-        <v>801</v>
-      </c>
-      <c r="N27" s="61" t="s">
+      <c r="M27" s="57" t="s">
+        <v>797</v>
+      </c>
+      <c r="N27" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="62" t="b">
+      <c r="O27" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P27" s="62" t="b">
+      <c r="P27" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="28" spans="1:16" ht="19.5" customHeight="1">
       <c r="A28" s="29">
         <v>26</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="58" t="s">
+      <c r="K28" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="M28" s="60" t="s">
-        <v>802</v>
-      </c>
-      <c r="N28" s="61" t="s">
+      <c r="M28" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="N28" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="62" t="b">
+      <c r="O28" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P28" s="62" t="b">
+      <c r="P28" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="29" spans="1:16" ht="19.5" customHeight="1">
       <c r="A29" s="29">
         <v>27</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="56" t="s">
+      <c r="H29" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="I29" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="73" t="s">
+      <c r="K29" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="M29" s="60" t="s">
-        <v>803</v>
-      </c>
-      <c r="N29" s="61" t="s">
+      <c r="M29" s="46" t="s">
+        <v>799</v>
+      </c>
+      <c r="N29" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="62" t="b">
+      <c r="O29" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P29" s="62" t="b">
+      <c r="P29" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="30" spans="1:16" ht="19.5" customHeight="1">
       <c r="A30" s="29">
         <v>28</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="K30" s="76" t="s">
+      <c r="K30" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="M30" s="60" t="s">
-        <v>804</v>
-      </c>
-      <c r="N30" s="61" t="s">
+      <c r="M30" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="N30" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="62" t="b">
+      <c r="O30" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P30" s="62" t="b">
+      <c r="P30" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="31" spans="1:16" ht="19.5" customHeight="1">
       <c r="A31" s="29">
         <v>29</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="M31" s="60" t="s">
-        <v>805</v>
-      </c>
-      <c r="N31" s="61" t="s">
+      <c r="M31" s="46" t="s">
+        <v>801</v>
+      </c>
+      <c r="N31" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="62" t="b">
+      <c r="O31" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P31" s="62" t="b">
+      <c r="P31" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="32" spans="1:16" ht="19.5" customHeight="1">
       <c r="A32" s="29">
         <v>30</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="H32" s="54" t="s">
+      <c r="H32" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="59" t="s">
+      <c r="L32" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="M32" s="60" t="s">
-        <v>806</v>
-      </c>
-      <c r="N32" s="61" t="s">
+      <c r="M32" s="71" t="s">
+        <v>852</v>
+      </c>
+      <c r="N32" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="62" t="b">
+      <c r="O32" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P32" s="62" t="b">
+      <c r="P32" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="33" spans="1:16" ht="19.5" customHeight="1">
       <c r="A33" s="29">
         <v>31</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E33" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="H33" s="56" t="s">
+      <c r="H33" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="K33" s="58" t="s">
+      <c r="K33" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="M33" s="60" t="s">
-        <v>807</v>
-      </c>
-      <c r="N33" s="61" t="s">
+      <c r="M33" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="N33" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="62" t="b">
+      <c r="O33" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P33" s="62" t="b">
+      <c r="P33" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="34" spans="1:16" ht="19.5" customHeight="1">
       <c r="A34" s="29">
         <v>32</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="H34" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="K34" s="55" t="s">
+      <c r="K34" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="L34" s="59" t="s">
+      <c r="L34" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="M34" s="60" t="s">
-        <v>808</v>
-      </c>
-      <c r="N34" s="61" t="s">
+      <c r="M34" s="46" t="s">
+        <v>803</v>
+      </c>
+      <c r="N34" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="62" t="b">
+      <c r="O34" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P34" s="62" t="b">
+      <c r="P34" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="35" spans="1:16" ht="19.5" customHeight="1">
       <c r="A35" s="29">
         <v>33</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="H35" s="56" t="s">
+      <c r="H35" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="K35" s="62" t="s">
+      <c r="K35" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="59" t="s">
+      <c r="L35" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="M35" s="70" t="s">
-        <v>809</v>
-      </c>
-      <c r="N35" s="61" t="s">
+      <c r="M35" s="54" t="s">
+        <v>804</v>
+      </c>
+      <c r="N35" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="62" t="b">
+      <c r="O35" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P35" s="62" t="b">
+      <c r="P35" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="36" spans="1:16" ht="19.5" customHeight="1">
       <c r="A36" s="29">
         <v>34</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="H36" s="56" t="s">
+      <c r="H36" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I36" s="56" t="s">
+      <c r="I36" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="K36" s="58" t="s">
+      <c r="K36" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="L36" s="59" t="s">
+      <c r="L36" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="M36" s="60" t="s">
-        <v>810</v>
-      </c>
-      <c r="N36" s="61" t="s">
+      <c r="M36" s="46" t="s">
+        <v>805</v>
+      </c>
+      <c r="N36" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O36" s="62" t="b">
+      <c r="O36" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P36" s="62" t="b">
+      <c r="P36" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="37" spans="1:16" ht="19.5" customHeight="1">
       <c r="A37" s="29">
         <v>35</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="59" t="s">
+        <v>819</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>837</v>
+      </c>
+      <c r="M37" s="46" t="s">
         <v>824</v>
       </c>
-      <c r="C37" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J37" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K37" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L37" s="65" t="s">
-        <v>843</v>
-      </c>
-      <c r="M37" s="60" t="s">
-        <v>829</v>
-      </c>
-      <c r="N37" s="61" t="s">
+      <c r="N37" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O37" s="62" t="b">
+      <c r="O37" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="62" t="b">
+      <c r="P37" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="38" spans="1:16" ht="19.5" customHeight="1">
       <c r="A38" s="29">
         <v>36</v>
       </c>
-      <c r="B38" s="78" t="s">
-        <v>825</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D38" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H38" s="56" t="s">
+      <c r="B38" s="59" t="s">
+        <v>820</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H38" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I38" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J38" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K38" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L38" s="65" t="s">
-        <v>844</v>
-      </c>
-      <c r="M38" s="68" t="s">
-        <v>816</v>
-      </c>
-      <c r="N38" s="61" t="s">
+      <c r="I38" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L38" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="M38" s="52" t="s">
+        <v>811</v>
+      </c>
+      <c r="N38" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O38" s="62" t="b">
+      <c r="O38" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P38" s="62" t="b">
+      <c r="P38" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="39" spans="1:16" ht="19.5" customHeight="1">
       <c r="A39" s="29">
         <v>37</v>
       </c>
-      <c r="B39" s="78" t="s">
-        <v>826</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H39" s="56" t="s">
+      <c r="B39" s="59" t="s">
+        <v>821</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H39" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J39" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L39" s="65" t="s">
-        <v>845</v>
-      </c>
-      <c r="M39" s="60" t="s">
-        <v>830</v>
-      </c>
-      <c r="N39" s="61" t="s">
+      <c r="I39" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L39" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>825</v>
+      </c>
+      <c r="N39" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="62" t="b">
+      <c r="O39" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P39" s="62" t="b">
+      <c r="P39" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="40" spans="1:16" ht="19.5" customHeight="1">
       <c r="A40" s="29">
         <v>38</v>
       </c>
-      <c r="B40" s="78" t="s">
-        <v>827</v>
-      </c>
-      <c r="C40" s="54" t="s">
+      <c r="B40" s="59" t="s">
         <v>822</v>
       </c>
-      <c r="D40" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H40" s="56" t="s">
+      <c r="C40" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H40" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I40" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J40" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K40" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L40" s="65" t="s">
-        <v>846</v>
-      </c>
-      <c r="M40" s="60" t="s">
-        <v>831</v>
-      </c>
-      <c r="N40" s="61" t="s">
+      <c r="I40" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L40" s="49" t="s">
+        <v>840</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>826</v>
+      </c>
+      <c r="N40" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="62" t="b">
+      <c r="O40" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P40" s="62" t="b">
+      <c r="P40" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="41" spans="1:16" ht="19.5" customHeight="1">
       <c r="A41" s="29">
         <v>39</v>
       </c>
-      <c r="B41" s="79" t="s">
-        <v>828</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H41" s="56" t="s">
+      <c r="B41" s="60" t="s">
+        <v>823</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H41" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J41" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K41" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L41" s="65" t="s">
-        <v>847</v>
-      </c>
-      <c r="M41" s="80" t="s">
-        <v>832</v>
-      </c>
-      <c r="N41" s="61" t="s">
+      <c r="I41" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>841</v>
+      </c>
+      <c r="M41" s="61" t="s">
+        <v>827</v>
+      </c>
+      <c r="N41" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O41" s="62" t="b">
+      <c r="O41" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P41" s="62" t="b">
+      <c r="P41" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="42" spans="1:16" ht="19.5" customHeight="1">
       <c r="A42" s="29">
         <v>40</v>
       </c>
-      <c r="B42" s="81" t="s">
-        <v>821</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F42" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G42" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H42" s="56" t="s">
+      <c r="B42" s="62" t="s">
+        <v>816</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H42" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J42" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K42" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L42" s="65" t="s">
-        <v>842</v>
-      </c>
-      <c r="M42" s="70" t="s">
-        <v>833</v>
-      </c>
-      <c r="N42" s="61" t="s">
+      <c r="I42" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L42" s="49" t="s">
+        <v>836</v>
+      </c>
+      <c r="M42" s="54" t="s">
+        <v>828</v>
+      </c>
+      <c r="N42" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O42" s="62" t="b">
+      <c r="O42" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P42" s="62" t="b">
+      <c r="P42" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="43" spans="1:16" ht="19.5" customHeight="1">
       <c r="A43" s="29">
         <v>41</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="I43" s="56" t="s">
+      <c r="I43" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="K43" s="82" t="s">
+      <c r="K43" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="59" t="s">
+      <c r="L43" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="M43" s="60" t="s">
-        <v>811</v>
-      </c>
-      <c r="N43" s="61" t="s">
+      <c r="M43" s="46" t="s">
+        <v>806</v>
+      </c>
+      <c r="N43" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="62" t="b">
+      <c r="O43" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P43" s="62" t="b">
+      <c r="P43" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A44" s="29">
+    <row r="44" spans="1:16" s="81" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A44" s="74">
         <v>42</v>
       </c>
-      <c r="B44" s="91" t="s">
-        <v>850</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="H44" s="48" t="s">
+      <c r="B44" s="75" t="s">
+        <v>844</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="E44" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="F44" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="H44" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="I44" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="J44" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="K44" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="L44" s="50" t="s">
-        <v>852</v>
-      </c>
-      <c r="M44" s="92" t="s">
-        <v>851</v>
-      </c>
-      <c r="N44" s="51" t="s">
+      <c r="I44" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="J44" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="K44" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="L44" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="M44" s="73" t="s">
+        <v>845</v>
+      </c>
+      <c r="N44" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="49" t="b">
+      <c r="O44" s="80" t="b">
         <v>0</v>
       </c>
-      <c r="P44" s="49" t="b">
+      <c r="P44" s="80" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="45" spans="1:16" ht="19.5" customHeight="1">
       <c r="A45" s="29">
         <v>43</v>
       </c>
-      <c r="B45" s="81" t="s">
-        <v>821</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F45" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H45" s="56" t="s">
+      <c r="B45" s="62" t="s">
+        <v>816</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H45" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="I45" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J45" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K45" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L45" s="59" t="s">
-        <v>838</v>
-      </c>
-      <c r="M45" s="70" t="s">
-        <v>833</v>
-      </c>
-      <c r="N45" s="61" t="s">
+      <c r="I45" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L45" s="41" t="s">
+        <v>832</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>828</v>
+      </c>
+      <c r="N45" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="O45" s="62" t="b">
+      <c r="O45" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P45" s="62" t="b">
+      <c r="P45" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="46" spans="1:16" ht="19.5" customHeight="1">
       <c r="A46" s="29">
         <v>44</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="H46" s="56" t="s">
+      <c r="H46" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="I46" s="56" t="s">
+      <c r="I46" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="72" t="s">
+      <c r="J46" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="K46" s="58" t="s">
+      <c r="K46" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="L46" s="59" t="s">
+      <c r="L46" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="M46" s="60" t="s">
-        <v>812</v>
-      </c>
-      <c r="N46" s="61" t="s">
+      <c r="M46" s="46" t="s">
+        <v>807</v>
+      </c>
+      <c r="N46" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O46" s="62" t="b">
+      <c r="O46" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P46" s="62" t="b">
+      <c r="P46" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="47" spans="1:16" ht="19.5" customHeight="1">
       <c r="A47" s="29">
         <v>45</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="I47" s="56" t="s">
+      <c r="I47" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="K47" s="62" t="s">
+      <c r="K47" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="59" t="s">
+      <c r="L47" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="M47" s="70" t="s">
-        <v>813</v>
-      </c>
-      <c r="N47" s="61" t="s">
+      <c r="M47" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="N47" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O47" s="62" t="b">
+      <c r="O47" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P47" s="62" t="b">
+      <c r="P47" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="48" spans="1:16" ht="19.5" customHeight="1">
       <c r="A48" s="29">
         <v>46</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="F48" s="56" t="s">
+      <c r="F48" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="G48" s="56" t="s">
+      <c r="G48" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="56" t="s">
+      <c r="H48" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="I48" s="56" t="s">
+      <c r="I48" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="K48" s="62" t="s">
+      <c r="K48" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="59" t="s">
+      <c r="L48" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="M48" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="N48" s="61" t="s">
+      <c r="M48" s="46" t="s">
+        <v>809</v>
+      </c>
+      <c r="N48" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O48" s="62" t="b">
+      <c r="O48" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P48" s="62" t="b">
+      <c r="P48" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="49" spans="1:16" ht="19.5" customHeight="1">
       <c r="A49" s="29">
         <v>47</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="E49" s="73" t="s">
+      <c r="E49" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="G49" s="56" t="s">
+      <c r="G49" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="H49" s="56" t="s">
+      <c r="H49" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="I49" s="56" t="s">
+      <c r="I49" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="K49" s="62" t="s">
+      <c r="K49" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L49" s="59" t="s">
+      <c r="L49" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="M49" s="60" t="s">
-        <v>815</v>
-      </c>
-      <c r="N49" s="61" t="s">
+      <c r="M49" s="46" t="s">
+        <v>810</v>
+      </c>
+      <c r="N49" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O49" s="62" t="b">
+      <c r="O49" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P49" s="62" t="b">
+      <c r="P49" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="50" spans="1:16" ht="19.5" customHeight="1">
       <c r="A50" s="29">
         <v>48</v>
       </c>
-      <c r="B50" s="78" t="s">
-        <v>836</v>
-      </c>
-      <c r="C50" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H50" s="56" t="s">
+      <c r="B50" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H50" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J50" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K50" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L50" s="65" t="s">
-        <v>848</v>
-      </c>
-      <c r="M50" s="68" t="s">
-        <v>816</v>
-      </c>
-      <c r="N50" s="61" t="s">
+      <c r="I50" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L50" s="49" t="s">
+        <v>842</v>
+      </c>
+      <c r="M50" s="52" t="s">
+        <v>811</v>
+      </c>
+      <c r="N50" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="62" t="b">
+      <c r="O50" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P50" s="62" t="b">
+      <c r="P50" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="51" spans="1:16" ht="19.5" customHeight="1">
       <c r="A51" s="29">
         <v>49</v>
       </c>
-      <c r="B51" s="78" t="s">
-        <v>837</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H51" s="56" t="s">
+      <c r="B51" s="59" t="s">
+        <v>831</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H51" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="I51" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J51" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K51" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L51" s="65" t="s">
-        <v>849</v>
-      </c>
-      <c r="M51" s="68" t="s">
-        <v>816</v>
-      </c>
-      <c r="N51" s="61" t="s">
+      <c r="I51" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L51" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="M51" s="52" t="s">
+        <v>811</v>
+      </c>
+      <c r="N51" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O51" s="62" t="b">
+      <c r="O51" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P51" s="62" t="b">
+      <c r="P51" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="52" spans="1:16" ht="19.5" customHeight="1">
       <c r="A52" s="29">
         <v>50</v>
       </c>
-      <c r="B52" s="81" t="s">
-        <v>821</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D52" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E52" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F52" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G52" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H52" s="56" t="s">
+      <c r="B52" s="62" t="s">
+        <v>816</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H52" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="I52" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J52" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K52" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L52" s="59" t="s">
-        <v>838</v>
-      </c>
-      <c r="M52" s="70" t="s">
-        <v>833</v>
-      </c>
-      <c r="N52" s="61" t="s">
+      <c r="I52" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L52" s="41" t="s">
+        <v>832</v>
+      </c>
+      <c r="M52" s="54" t="s">
+        <v>828</v>
+      </c>
+      <c r="N52" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="62" t="b">
+      <c r="O52" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P52" s="62" t="b">
+      <c r="P52" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="53" spans="1:16" ht="19.5" customHeight="1">
       <c r="A53" s="29">
         <v>51</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="73" t="s">
+      <c r="D53" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="E53" s="73" t="s">
+      <c r="E53" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="F53" s="56" t="s">
+      <c r="F53" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G53" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="H53" s="56" t="s">
+      <c r="H53" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="I53" s="56" t="s">
+      <c r="I53" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="J53" s="72" t="s">
+      <c r="J53" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="K53" s="62" t="s">
+      <c r="K53" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L53" s="59" t="s">
+      <c r="L53" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="M53" s="70" t="s">
-        <v>816</v>
-      </c>
-      <c r="N53" s="61" t="s">
+      <c r="M53" s="54" t="s">
+        <v>811</v>
+      </c>
+      <c r="N53" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="O53" s="62" t="b">
+      <c r="O53" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="P53" s="62" t="b">
+      <c r="P53" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="54" spans="1:16" ht="19.5" customHeight="1">
       <c r="A54" s="29">
         <v>52</v>
       </c>
-      <c r="B54" s="81" t="s">
-        <v>821</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="E54" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="F54" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="H54" s="56" t="s">
+      <c r="B54" s="62" t="s">
+        <v>816</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="H54" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="I54" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="J54" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="K54" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="L54" s="59" t="s">
-        <v>838</v>
-      </c>
-      <c r="M54" s="70" t="s">
-        <v>833</v>
-      </c>
-      <c r="N54" s="61" t="s">
+      <c r="I54" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="L54" s="41" t="s">
+        <v>832</v>
+      </c>
+      <c r="M54" s="54" t="s">
+        <v>828</v>
+      </c>
+      <c r="N54" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="O54" s="62" t="b">
+      <c r="O54" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="P54" s="62" t="b">
+      <c r="P54" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A55" s="83"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="82" t="s">
+    <row r="55" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-    </row>
-    <row r="56" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A56" s="83"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="82" t="s">
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+    </row>
+    <row r="56" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-    </row>
-    <row r="57" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A57" s="83"/>
-      <c r="B57" s="53" t="s">
-        <v>853</v>
-      </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="82" t="s">
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+    </row>
+    <row r="57" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="37" t="s">
+        <v>847</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-    </row>
-    <row r="58" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A58" s="83"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="82" t="s">
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+    </row>
+    <row r="58" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-    </row>
-    <row r="59" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A59" s="83"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="82" t="s">
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+    </row>
+    <row r="59" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-    </row>
-    <row r="60" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A60" s="83"/>
-    </row>
-    <row r="61" spans="1:16" s="63" customFormat="1" ht="19.5" customHeight="1"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+    </row>
+    <row r="60" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" ht="19.5" customHeight="1"/>
     <row r="62" spans="1:16" ht="19.5" customHeight="1"/>
     <row r="63" spans="1:16" ht="19.5" customHeight="1"/>
     <row r="64" spans="1:16" ht="19.5" customHeight="1"/>
@@ -8878,54 +8805,54 @@
     <hyperlink ref="M49" r:id="rId131" xr:uid="{168441D3-3570-4141-B0CB-54B09C3721C4}"/>
     <hyperlink ref="M13" r:id="rId132" xr:uid="{D6908705-D109-5A44-B7C6-420975DA42C0}"/>
     <hyperlink ref="M23" r:id="rId133" xr:uid="{2CF81E44-3DE3-364D-9E91-7C4AB512BAF1}"/>
-    <hyperlink ref="M24" r:id="rId134" xr:uid="{4898B7C1-87EA-424E-9AA1-320F2E1462D3}"/>
-    <hyperlink ref="M35" r:id="rId135" xr:uid="{8AB2055D-BE6C-DD46-8FD4-AB1DABB4269B}"/>
-    <hyperlink ref="M32" r:id="rId136" xr:uid="{03E20DB3-FEA5-6544-936B-52CB18A76E06}"/>
-    <hyperlink ref="M6" r:id="rId137" xr:uid="{2E23446B-A1E3-C24F-B778-7BAAD2161288}"/>
-    <hyperlink ref="M7" r:id="rId138" xr:uid="{95C5C1EB-30D1-3E4C-A5D1-52402FCFCB24}"/>
-    <hyperlink ref="M10" r:id="rId139" xr:uid="{F1B5D1B2-165F-D84B-8B15-5859EE845D26}"/>
-    <hyperlink ref="M22" r:id="rId140" xr:uid="{D677CCE2-F2AC-B348-96EB-2DAB5ED9B9A0}"/>
-    <hyperlink ref="M33" r:id="rId141" xr:uid="{617B785A-FF70-4749-9CEB-D7DE387C8954}"/>
-    <hyperlink ref="M46" r:id="rId142" xr:uid="{66BDE6AC-29C2-4B41-A9A3-87F900EFA1C2}"/>
-    <hyperlink ref="M2" r:id="rId143" xr:uid="{A3F47F2C-68B4-3D48-A60B-BBFD605E8CC0}"/>
-    <hyperlink ref="M43" r:id="rId144" xr:uid="{6C9A1314-E3DA-934A-863A-061B04E8D6EB}"/>
-    <hyperlink ref="M36" r:id="rId145" xr:uid="{22478BA6-1FC2-894B-BEA2-D9C6C78CE2AB}"/>
-    <hyperlink ref="M3" r:id="rId146" xr:uid="{19170B0A-5E2F-E241-896F-C9C1F246CF98}"/>
-    <hyperlink ref="M47" r:id="rId147" xr:uid="{C03EB75E-C923-9747-A2D7-4841BFC1F3A0}"/>
-    <hyperlink ref="M29" r:id="rId148" xr:uid="{42AFD22E-EDB9-8D44-87E3-5D49A6B38AF0}"/>
-    <hyperlink ref="M48" r:id="rId149" xr:uid="{32AA169A-2B96-9C49-B68D-3D7B7E7998BC}"/>
-    <hyperlink ref="M25" r:id="rId150" xr:uid="{F11F9C68-9C0A-7249-B3E1-AE9AE0AC110A}"/>
-    <hyperlink ref="M15" r:id="rId151" xr:uid="{459B107E-B345-0447-8EEF-CB497CFA2C48}"/>
-    <hyperlink ref="M26" r:id="rId152" xr:uid="{C1026C81-6C8E-8D46-BA79-54E87759CAE9}"/>
-    <hyperlink ref="M5" r:id="rId153" xr:uid="{D2A139E4-107B-4442-B2E4-0F2837A12825}"/>
-    <hyperlink ref="M27" r:id="rId154" xr:uid="{619C5121-93A7-A848-A0D7-A0CB5BD56CC8}"/>
-    <hyperlink ref="M34" r:id="rId155" xr:uid="{5561FA37-278D-9F41-8C61-B957C26EAE0C}"/>
-    <hyperlink ref="M14" r:id="rId156" xr:uid="{859E3E18-9EE0-E842-85BC-F6825B804125}"/>
-    <hyperlink ref="M8" r:id="rId157" xr:uid="{C4871AFE-302E-6E4E-BB61-AEB8CB9D84F2}"/>
-    <hyperlink ref="M9" r:id="rId158" xr:uid="{CDE11BCE-583F-F34C-B613-B75C310E5AC6}"/>
-    <hyperlink ref="M28" r:id="rId159" xr:uid="{A11754DF-5537-3C4D-B097-632A91032F3E}"/>
-    <hyperlink ref="M16" r:id="rId160" xr:uid="{33317923-0D03-7740-A3D4-11670FD28712}"/>
-    <hyperlink ref="M4" r:id="rId161" xr:uid="{79271F6C-3A26-4348-8320-47D07092D174}"/>
-    <hyperlink ref="M17" r:id="rId162" xr:uid="{E8FC7996-ADB4-2549-BB37-637F7A74270C}"/>
-    <hyperlink ref="M53" r:id="rId163" xr:uid="{A8386BEE-3BBC-3C42-A6E4-5CDC314F3C9C}"/>
-    <hyperlink ref="M11" r:id="rId164" xr:uid="{4F6FDCA3-BDCC-F743-ABA2-C17C300D34A2}"/>
-    <hyperlink ref="M12" r:id="rId165" xr:uid="{060A9CB1-3D66-5041-8EA2-CADDC9499A17}"/>
-    <hyperlink ref="M19" r:id="rId166" xr:uid="{157A48EC-3937-5240-8A45-3211DF2E3BCF}"/>
-    <hyperlink ref="M18" r:id="rId167" xr:uid="{FED3E7B1-D202-6A46-8DA3-4A6FA8D7BD8C}"/>
-    <hyperlink ref="M20" r:id="rId168" xr:uid="{991B6064-3DC2-514B-8F22-6B183B8FD817}"/>
-    <hyperlink ref="M21" r:id="rId169" xr:uid="{D38B243E-93EB-D544-9024-4CA6478B3FBB}"/>
-    <hyperlink ref="M37" r:id="rId170" xr:uid="{B54F3250-0922-9B4C-9ACD-E79013F6E23B}"/>
-    <hyperlink ref="M39" r:id="rId171" xr:uid="{B0E556CD-C1BE-3C46-854E-FBD46770582B}"/>
-    <hyperlink ref="M38" r:id="rId172" xr:uid="{EB04813C-07A2-7E4E-8585-FBCB988B2589}"/>
-    <hyperlink ref="M41" r:id="rId173" xr:uid="{3193DFDC-97BE-4D4C-A3AA-8BF3FE31AFE8}"/>
-    <hyperlink ref="M40" r:id="rId174" xr:uid="{2D6159AD-7BEE-2A48-934C-5500A45CA02C}"/>
-    <hyperlink ref="M42" r:id="rId175" xr:uid="{33DD301A-FEC8-5042-A3DD-3E751569B912}"/>
-    <hyperlink ref="M45" r:id="rId176" xr:uid="{5C523DFD-33EC-3C48-9742-5D705F7590E3}"/>
-    <hyperlink ref="M50" r:id="rId177" xr:uid="{DEBDD8F7-94C6-6141-83CF-EE3C77682B07}"/>
-    <hyperlink ref="M51" r:id="rId178" xr:uid="{BC84B4F4-C5E9-E648-9973-A8576AD0F085}"/>
-    <hyperlink ref="M52" r:id="rId179" xr:uid="{E20A3778-EB84-B645-936C-6DEC6E964B9A}"/>
-    <hyperlink ref="M54" r:id="rId180" xr:uid="{8B62AA38-CAEF-1F43-A01D-6AB5437C93D1}"/>
-    <hyperlink ref="M44" r:id="rId181" xr:uid="{FF680213-F83C-2D45-B7B4-F98882B4DD83}"/>
+    <hyperlink ref="M35" r:id="rId134" xr:uid="{8AB2055D-BE6C-DD46-8FD4-AB1DABB4269B}"/>
+    <hyperlink ref="M6" r:id="rId135" xr:uid="{2E23446B-A1E3-C24F-B778-7BAAD2161288}"/>
+    <hyperlink ref="M10" r:id="rId136" xr:uid="{F1B5D1B2-165F-D84B-8B15-5859EE845D26}"/>
+    <hyperlink ref="M22" r:id="rId137" xr:uid="{D677CCE2-F2AC-B348-96EB-2DAB5ED9B9A0}"/>
+    <hyperlink ref="M33" r:id="rId138" xr:uid="{617B785A-FF70-4749-9CEB-D7DE387C8954}"/>
+    <hyperlink ref="M46" r:id="rId139" xr:uid="{66BDE6AC-29C2-4B41-A9A3-87F900EFA1C2}"/>
+    <hyperlink ref="M2" r:id="rId140" xr:uid="{A3F47F2C-68B4-3D48-A60B-BBFD605E8CC0}"/>
+    <hyperlink ref="M43" r:id="rId141" xr:uid="{6C9A1314-E3DA-934A-863A-061B04E8D6EB}"/>
+    <hyperlink ref="M36" r:id="rId142" xr:uid="{22478BA6-1FC2-894B-BEA2-D9C6C78CE2AB}"/>
+    <hyperlink ref="M3" r:id="rId143" xr:uid="{19170B0A-5E2F-E241-896F-C9C1F246CF98}"/>
+    <hyperlink ref="M47" r:id="rId144" xr:uid="{C03EB75E-C923-9747-A2D7-4841BFC1F3A0}"/>
+    <hyperlink ref="M29" r:id="rId145" xr:uid="{42AFD22E-EDB9-8D44-87E3-5D49A6B38AF0}"/>
+    <hyperlink ref="M48" r:id="rId146" xr:uid="{32AA169A-2B96-9C49-B68D-3D7B7E7998BC}"/>
+    <hyperlink ref="M15" r:id="rId147" xr:uid="{459B107E-B345-0447-8EEF-CB497CFA2C48}"/>
+    <hyperlink ref="M5" r:id="rId148" xr:uid="{D2A139E4-107B-4442-B2E4-0F2837A12825}"/>
+    <hyperlink ref="M27" r:id="rId149" xr:uid="{619C5121-93A7-A848-A0D7-A0CB5BD56CC8}"/>
+    <hyperlink ref="M34" r:id="rId150" xr:uid="{5561FA37-278D-9F41-8C61-B957C26EAE0C}"/>
+    <hyperlink ref="M14" r:id="rId151" xr:uid="{859E3E18-9EE0-E842-85BC-F6825B804125}"/>
+    <hyperlink ref="M8" r:id="rId152" xr:uid="{C4871AFE-302E-6E4E-BB61-AEB8CB9D84F2}"/>
+    <hyperlink ref="M9" r:id="rId153" xr:uid="{CDE11BCE-583F-F34C-B613-B75C310E5AC6}"/>
+    <hyperlink ref="M28" r:id="rId154" xr:uid="{A11754DF-5537-3C4D-B097-632A91032F3E}"/>
+    <hyperlink ref="M16" r:id="rId155" xr:uid="{33317923-0D03-7740-A3D4-11670FD28712}"/>
+    <hyperlink ref="M4" r:id="rId156" xr:uid="{79271F6C-3A26-4348-8320-47D07092D174}"/>
+    <hyperlink ref="M17" r:id="rId157" xr:uid="{E8FC7996-ADB4-2549-BB37-637F7A74270C}"/>
+    <hyperlink ref="M53" r:id="rId158" xr:uid="{A8386BEE-3BBC-3C42-A6E4-5CDC314F3C9C}"/>
+    <hyperlink ref="M11" r:id="rId159" xr:uid="{4F6FDCA3-BDCC-F743-ABA2-C17C300D34A2}"/>
+    <hyperlink ref="M12" r:id="rId160" xr:uid="{060A9CB1-3D66-5041-8EA2-CADDC9499A17}"/>
+    <hyperlink ref="M18" r:id="rId161" xr:uid="{FED3E7B1-D202-6A46-8DA3-4A6FA8D7BD8C}"/>
+    <hyperlink ref="M20" r:id="rId162" xr:uid="{991B6064-3DC2-514B-8F22-6B183B8FD817}"/>
+    <hyperlink ref="M21" r:id="rId163" xr:uid="{D38B243E-93EB-D544-9024-4CA6478B3FBB}"/>
+    <hyperlink ref="M37" r:id="rId164" xr:uid="{B54F3250-0922-9B4C-9ACD-E79013F6E23B}"/>
+    <hyperlink ref="M39" r:id="rId165" xr:uid="{B0E556CD-C1BE-3C46-854E-FBD46770582B}"/>
+    <hyperlink ref="M38" r:id="rId166" xr:uid="{EB04813C-07A2-7E4E-8585-FBCB988B2589}"/>
+    <hyperlink ref="M41" r:id="rId167" xr:uid="{3193DFDC-97BE-4D4C-A3AA-8BF3FE31AFE8}"/>
+    <hyperlink ref="M40" r:id="rId168" xr:uid="{2D6159AD-7BEE-2A48-934C-5500A45CA02C}"/>
+    <hyperlink ref="M42" r:id="rId169" xr:uid="{33DD301A-FEC8-5042-A3DD-3E751569B912}"/>
+    <hyperlink ref="M45" r:id="rId170" xr:uid="{5C523DFD-33EC-3C48-9742-5D705F7590E3}"/>
+    <hyperlink ref="M50" r:id="rId171" xr:uid="{DEBDD8F7-94C6-6141-83CF-EE3C77682B07}"/>
+    <hyperlink ref="M51" r:id="rId172" xr:uid="{BC84B4F4-C5E9-E648-9973-A8576AD0F085}"/>
+    <hyperlink ref="M52" r:id="rId173" xr:uid="{E20A3778-EB84-B645-936C-6DEC6E964B9A}"/>
+    <hyperlink ref="M54" r:id="rId174" xr:uid="{8B62AA38-CAEF-1F43-A01D-6AB5437C93D1}"/>
+    <hyperlink ref="M44" r:id="rId175" xr:uid="{FF680213-F83C-2D45-B7B4-F98882B4DD83}"/>
+    <hyperlink ref="M7" r:id="rId176" xr:uid="{E74A6A44-59C6-BE4A-A006-FE27AE249D4C}"/>
+    <hyperlink ref="M24" r:id="rId177" xr:uid="{4F6A05CD-839C-C143-A2AA-6300C13939FC}"/>
+    <hyperlink ref="M25" r:id="rId178" xr:uid="{206DF0AC-49B8-9043-B00F-C65D7F90FA49}"/>
+    <hyperlink ref="M26" r:id="rId179" xr:uid="{F099EF48-3660-FE41-BC1F-6CED02042688}"/>
+    <hyperlink ref="M32" r:id="rId180" xr:uid="{DDDDCBD8-5943-154F-B0D6-5FB42002BA98}"/>
+    <hyperlink ref="M19" r:id="rId181" xr:uid="{912514F9-9D55-2C40-BD4B-7B41C61F4C73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10445,7 +10372,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>565</v>
